--- a/RMSXRouteFillTest/RMSXRouteFillTest_SequenceDiagram.xlsx
+++ b/RMSXRouteFillTest/RMSXRouteFillTest_SequenceDiagram.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="SequenceDiagram" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="EMSX Patterns" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="139">
   <si>
     <t xml:space="preserve">RouteFillTest</t>
   </si>
@@ -299,6 +300,150 @@
   </si>
   <si>
     <t xml:space="preserve">Call Evaluate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previous Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMSX_STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New route created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working amount set on route (can be ignored)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMSX_WORKING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORKING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACK received from broker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARTFILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First fill of multiple fills (&lt; 100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;n and &gt;0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle fill of multiple fills (&lt; 100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILLED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final fill of multiple fills (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full single fill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historic 100% fill on INIT_PAINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working route on INIT_PAINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part filled route on INIT_PAINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXLREQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel requested on route in INIT_PAINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel route request sent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker rejected cancel request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXLPEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker sent ACK for cancel request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker cancelled route from request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker cancelled route from pending status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel requested on part filled route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker rejected cancel request on part filled route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXLRPRQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify (cancel/replace) request sent to broker on working route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPPEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker sent ACK for modify request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker rejected modify request on working route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMSX_BROKER_STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXLRPRJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker accepted and applied the modify request on working route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODIFIED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify (cancel/replace) request sent to broker on part filled route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker rejected modify request on part filled route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker accepted and applied the modify request on part filled route</t>
   </si>
 </sst>
 </file>
@@ -308,7 +453,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -344,16 +489,45 @@
       <name val="Calibri"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0084D1"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE7F5"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -403,6 +577,55 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -429,7 +652,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -478,6 +701,134 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -508,10 +859,10 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCFE7F5"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF0084D1"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -561,9 +912,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>550080</xdr:colOff>
+      <xdr:colOff>549720</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -573,7 +924,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="698400" y="1886040"/>
-          <a:ext cx="10986120" cy="20880"/>
+          <a:ext cx="10982520" cy="20520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -625,9 +976,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -636,8 +987,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11716920" y="2838600"/>
-          <a:ext cx="10974600" cy="11880"/>
+          <a:off x="11713680" y="2838600"/>
+          <a:ext cx="10971000" cy="11520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -683,13 +1034,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>528840</xdr:colOff>
+      <xdr:colOff>528120</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>105840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>771840</xdr:colOff>
+      <xdr:colOff>770760</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
@@ -700,8 +1051,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11663280" y="3039480"/>
-          <a:ext cx="10974600" cy="360"/>
+          <a:off x="11659320" y="3039480"/>
+          <a:ext cx="10971000" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -753,9 +1104,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>528480</xdr:colOff>
+      <xdr:colOff>528120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -765,7 +1116,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="659880" y="3524400"/>
-          <a:ext cx="11003040" cy="3960"/>
+          <a:ext cx="10999440" cy="3600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -811,15 +1162,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>-23217480</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:colOff>702720</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>713160</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>740160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -827,9 +1178,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="-23217480" y="3686040"/>
-          <a:ext cx="23930640" cy="14400"/>
+        <a:xfrm>
+          <a:off x="702720" y="4878720"/>
+          <a:ext cx="13889880" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -875,15 +1226,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>-23226120</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:colOff>635040</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>676800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>644760</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -891,9 +1242,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="-23226120" y="3895200"/>
-          <a:ext cx="23902920" cy="10080"/>
+        <a:xfrm flipH="1">
+          <a:off x="635040" y="5027040"/>
+          <a:ext cx="13862160" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -939,15 +1290,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>702720</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:colOff>622800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>740520</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>717480</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -955,9 +1306,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="702720" y="4878720"/>
-          <a:ext cx="13893480" cy="360"/>
+        <a:xfrm flipH="1">
+          <a:off x="622800" y="5636880"/>
+          <a:ext cx="30365640" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1003,15 +1354,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>635040</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:colOff>690120</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>645120</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>718920</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1019,9 +1370,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="635040" y="5027040"/>
-          <a:ext cx="13865760" cy="360"/>
+        <a:xfrm>
+          <a:off x="690120" y="6237720"/>
+          <a:ext cx="31901040" cy="7920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1067,15 +1418,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>-29648880</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:colOff>633600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>696240</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>658440</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1083,9 +1434,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="-29648880" y="5140440"/>
-          <a:ext cx="30345120" cy="15480"/>
+        <a:xfrm flipH="1">
+          <a:off x="633600" y="6718320"/>
+          <a:ext cx="31897080" cy="5760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1130,16 +1481,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>623520</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>624960</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>718560</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>687600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1147,9 +1498,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="623520" y="5636880"/>
-          <a:ext cx="30375000" cy="360"/>
+        <a:xfrm flipV="1">
+          <a:off x="29294280" y="6396480"/>
+          <a:ext cx="3265560" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1194,16 +1545,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>690120</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>635040</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>719280</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:colOff>655560</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1211,9 +1562,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="690120" y="6237720"/>
-          <a:ext cx="31911120" cy="8280"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="29304360" y="6549480"/>
+          <a:ext cx="3223440" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1259,15 +1610,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>634320</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:colOff>694440</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>659520</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>750960</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1275,9 +1626,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="634320" y="6718320"/>
-          <a:ext cx="31907160" cy="6120"/>
+        <a:xfrm>
+          <a:off x="694440" y="7461360"/>
+          <a:ext cx="36733320" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1322,16 +1673,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>624960</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>650160</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>687960</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>712800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1340,8 +1691,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="29302560" y="6397200"/>
-          <a:ext cx="3267360" cy="360"/>
+          <a:off x="34124040" y="7630560"/>
+          <a:ext cx="3265560" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1386,16 +1737,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>635040</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>660240</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>655920</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>680760</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1404,8 +1755,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="29312640" y="6550200"/>
-          <a:ext cx="3225240" cy="360"/>
+          <a:off x="34134120" y="7772760"/>
+          <a:ext cx="3223440" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1451,15 +1802,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>694440</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:colOff>634320</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>751320</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:colOff>712080</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1467,9 +1818,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="694440" y="7461360"/>
-          <a:ext cx="36745200" cy="360"/>
+        <a:xfrm flipH="1">
+          <a:off x="634320" y="7926840"/>
+          <a:ext cx="36754560" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1514,16 +1865,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>650160</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>698040</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>713160</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>718560</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1531,9 +1882,73 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2158920" y="9609480"/>
+          <a:ext cx="15615000" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>577080</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>755640</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="34134120" y="7631280"/>
-          <a:ext cx="3267360" cy="360"/>
+          <a:off x="577080" y="9743040"/>
+          <a:ext cx="1639440" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1578,26 +1993,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>660240</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>642240</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>681120</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>707040</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="34144200" y="7773480"/>
-          <a:ext cx="3225240" cy="360"/>
+        <a:xfrm flipV="1">
+          <a:off x="26108640" y="10356840"/>
+          <a:ext cx="8072280" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1642,26 +2057,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>634320</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>645480</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>712440</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>707760</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
+        <xdr:cNvPr id="18" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="634320" y="7926840"/>
-          <a:ext cx="36766440" cy="360"/>
+          <a:off x="34119360" y="10513440"/>
+          <a:ext cx="8069760" cy="9720"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1706,80 +2121,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>698760</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>708120</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>719640</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2159640" y="9609480"/>
-          <a:ext cx="15619680" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>577080</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>756000</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>712080</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1787,9 +2138,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="577080" y="9743760"/>
-          <a:ext cx="1639800" cy="360"/>
+        <a:xfrm flipH="1">
+          <a:off x="3770640" y="10670400"/>
+          <a:ext cx="30415320" cy="5760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1834,16 +2185,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>-26578440</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>650520</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>770400</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
+      <xdr:colOff>748800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1852,8 +2203,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="-26578440" y="10194840"/>
-          <a:ext cx="30412080" cy="360"/>
+          <a:off x="2111400" y="11118960"/>
+          <a:ext cx="1699920" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1898,16 +2249,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>642240</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>655920</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>707400</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>729360</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1915,9 +2266,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="26115840" y="10357560"/>
-          <a:ext cx="8075520" cy="360"/>
+        <a:xfrm flipH="1">
+          <a:off x="5381280" y="11732760"/>
+          <a:ext cx="14004720" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1962,16 +2313,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>645480</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>697320</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>708120</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>722520</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1980,8 +2331,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="34129440" y="10513440"/>
-          <a:ext cx="8073360" cy="10080"/>
+          <a:off x="3759840" y="11889360"/>
+          <a:ext cx="1688040" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2026,16 +2377,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>708840</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>651960</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>713160</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>689760</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2043,9 +2394,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3772080" y="10670400"/>
-          <a:ext cx="30425040" cy="6120"/>
+        <a:xfrm flipV="1">
+          <a:off x="42133320" y="12189960"/>
+          <a:ext cx="1639080" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2090,16 +2441,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>650520</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>623880</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>749160</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>661680</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2107,9 +2458,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2111400" y="11119680"/>
-          <a:ext cx="1701000" cy="360"/>
+        <a:xfrm flipH="1">
+          <a:off x="43706520" y="12337920"/>
+          <a:ext cx="1639440" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2154,16 +2505,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>-8559000</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>686520</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>711720</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2171,9 +2522,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="-8559000" y="11581200"/>
-          <a:ext cx="13996800" cy="360"/>
+        <a:xfrm flipH="1">
+          <a:off x="3749040" y="12494880"/>
+          <a:ext cx="40019400" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2218,16 +2569,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>655920</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>729720</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285120</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2235,405 +2586,19 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5382000" y="11732760"/>
-          <a:ext cx="14009400" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>698040</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>723600</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3761280" y="11889360"/>
-          <a:ext cx="1688400" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>-36216360</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>757800</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="-36216360" y="12031920"/>
-          <a:ext cx="40037400" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>651960</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>690120</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="42146640" y="12190680"/>
-          <a:ext cx="1640160" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>623880</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>662040</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="43720560" y="12337920"/>
-          <a:ext cx="1640160" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>687240</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>686880</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3750480" y="12494880"/>
-          <a:ext cx="40033080" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95400</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285480</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
         <a:xfrm>
-          <a:off x="3158640" y="11102040"/>
-          <a:ext cx="190080" cy="1381680"/>
+          <a:off x="3157920" y="11102040"/>
+          <a:ext cx="189720" cy="1381320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -2671,26 +2636,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>-31471560</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>767160</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>774720</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>764280</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="CustomShape 1"/>
+        <xdr:cNvPr id="27" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="-31471560" y="13124160"/>
-          <a:ext cx="35309520" cy="360"/>
+          <a:off x="31038120" y="13428360"/>
+          <a:ext cx="8004240" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2735,26 +2700,90 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>767160</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>595440</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>764640</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>694440</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="CustomShape 1"/>
+        <xdr:cNvPr id="28" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="31047120" y="13429080"/>
-          <a:ext cx="8007840" cy="360"/>
+          <a:off x="43678080" y="14336280"/>
+          <a:ext cx="3301920" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>733680</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>68400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>747360</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>68760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="29403000" y="14945760"/>
+          <a:ext cx="9622440" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2799,90 +2828,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>595440</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>656280</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>694800</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>693360</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="CustomShape 1"/>
+        <xdr:cNvPr id="30" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="43692120" y="14337000"/>
-          <a:ext cx="3303360" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>733680</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>747720</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="29411280" y="14946480"/>
-          <a:ext cx="9626760" cy="360"/>
+        <a:xfrm flipH="1">
+          <a:off x="46941840" y="13728600"/>
+          <a:ext cx="1638720" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2927,26 +2892,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>656280</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>697680</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>693720</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:colOff>696600</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="CustomShape 1"/>
+        <xdr:cNvPr id="31" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="46956960" y="13728600"/>
-          <a:ext cx="1639800" cy="360"/>
+          <a:off x="38975760" y="15104520"/>
+          <a:ext cx="9608040" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2992,25 +2957,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>698400</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:colOff>698040</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>697680</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>722880</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="CustomShape 1"/>
+        <xdr:cNvPr id="32" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="38988720" y="15104520"/>
-          <a:ext cx="9612000" cy="360"/>
+          <a:off x="38976120" y="13889880"/>
+          <a:ext cx="8032320" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3055,26 +3020,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>698040</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>750960</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>723240</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>746280</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="CustomShape 1"/>
+        <xdr:cNvPr id="33" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="38988360" y="13889880"/>
-          <a:ext cx="8035560" cy="360"/>
+          <a:off x="3813480" y="15710040"/>
+          <a:ext cx="35210880" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3119,26 +3084,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>750960</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>641160</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>746640</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>678240</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="CustomShape 1"/>
+        <xdr:cNvPr id="34" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3814200" y="15710040"/>
-          <a:ext cx="35222760" cy="360"/>
+        <a:xfrm flipV="1">
+          <a:off x="45325440" y="16183800"/>
+          <a:ext cx="4841280" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3183,26 +3148,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>641160</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>757080</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>678600</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>773280</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="CustomShape 1"/>
+        <xdr:cNvPr id="35" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="45339840" y="16184520"/>
-          <a:ext cx="4843800" cy="360"/>
+          <a:off x="51847200" y="16802640"/>
+          <a:ext cx="3219120" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3247,26 +3212,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>757080</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>688680</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>773640</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>725760</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="CustomShape 1"/>
+        <xdr:cNvPr id="36" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="51864120" y="16803360"/>
-          <a:ext cx="3220920" cy="360"/>
+          <a:off x="56583000" y="16954920"/>
+          <a:ext cx="1638720" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3311,26 +3276,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>688680</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>733320</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>726120</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>695160</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CustomShape 1"/>
+        <xdr:cNvPr id="37" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="56602080" y="16955640"/>
-          <a:ext cx="1639800" cy="360"/>
+        <a:xfrm flipH="1">
+          <a:off x="29402640" y="17558640"/>
+          <a:ext cx="30389760" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3375,26 +3340,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>733320</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>679680</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>695520</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>700200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="CustomShape 1"/>
+        <xdr:cNvPr id="38" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="29410920" y="17558640"/>
-          <a:ext cx="30402360" cy="360"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="27747720" y="5333760"/>
+          <a:ext cx="3223440" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3440,25 +3405,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>679680</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:colOff>721800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>700560</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:colOff>784440</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="CustomShape 1"/>
+        <xdr:cNvPr id="39" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="27755280" y="5334480"/>
-          <a:ext cx="3225240" cy="360"/>
+        <a:xfrm flipV="1">
+          <a:off x="27789840" y="5489640"/>
+          <a:ext cx="3265560" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3503,26 +3468,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>721800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>800640</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>784800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>761400</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="CustomShape 1"/>
+        <xdr:cNvPr id="40" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="27797400" y="5490360"/>
-          <a:ext cx="3267360" cy="360"/>
+        <a:xfrm>
+          <a:off x="29469960" y="17710920"/>
+          <a:ext cx="30388680" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3567,26 +3532,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>800640</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>665280</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>761760</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:colOff>684720</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="CustomShape 1"/>
+        <xdr:cNvPr id="41" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="29478240" y="17710920"/>
-          <a:ext cx="30401280" cy="360"/>
+        <a:xfrm flipH="1">
+          <a:off x="26131680" y="18329760"/>
+          <a:ext cx="33650280" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3632,25 +3597,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>666000</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:colOff>743040</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:colOff>751680</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="CustomShape 1"/>
+        <xdr:cNvPr id="42" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="26139600" y="18329760"/>
-          <a:ext cx="33663960" cy="360"/>
+        <a:xfrm>
+          <a:off x="26209440" y="18482400"/>
+          <a:ext cx="33639480" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3695,26 +3660,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>743040</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>678240</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>752040</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:colOff>716040</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="CustomShape 1"/>
+        <xdr:cNvPr id="43" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="26216640" y="18482400"/>
-          <a:ext cx="33653160" cy="360"/>
+        <a:xfrm flipV="1">
+          <a:off x="58174200" y="19088640"/>
+          <a:ext cx="1639080" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3759,26 +3724,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>678240</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>714600</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>716400</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>686520</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CustomShape 1"/>
+        <xdr:cNvPr id="44" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="58194000" y="19089360"/>
-          <a:ext cx="1640160" cy="360"/>
+        <a:xfrm flipH="1">
+          <a:off x="10244520" y="19701360"/>
+          <a:ext cx="51140880" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3823,26 +3788,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>714600</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>676800</xdr:colOff>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>88920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>686880</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:colOff>714600</xdr:colOff>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="CustomShape 1"/>
+        <xdr:cNvPr id="45" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10247040" y="19701360"/>
-          <a:ext cx="51159600" cy="360"/>
+          <a:off x="59774040" y="20006280"/>
+          <a:ext cx="1639440" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3887,26 +3852,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>-40862520</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>743400</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>777240</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>780840</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="CustomShape 1"/>
+        <xdr:cNvPr id="46" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="-40862520" y="19837800"/>
-          <a:ext cx="51172200" cy="360"/>
+        <a:xfrm flipH="1">
+          <a:off x="58239360" y="20158560"/>
+          <a:ext cx="1638720" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3951,26 +3916,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>676800</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>541800</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>714960</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>675360</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="CustomShape 1"/>
+        <xdr:cNvPr id="47" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="59794560" y="20006280"/>
-          <a:ext cx="1640160" cy="360"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="51631920" y="20285640"/>
+          <a:ext cx="3336480" cy="11880"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4015,26 +3980,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>743400</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>681120</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>781200</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>744840</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="CustomShape 1"/>
+        <xdr:cNvPr id="48" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="58259160" y="20158560"/>
-          <a:ext cx="1639800" cy="360"/>
+        <a:xfrm flipV="1">
+          <a:off x="46966680" y="20917440"/>
+          <a:ext cx="8071200" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4079,26 +4044,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>685440</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>675720</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>733680</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="CustomShape 1"/>
+        <xdr:cNvPr id="49" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="51648840" y="20286360"/>
-          <a:ext cx="3338280" cy="12240"/>
+        <a:xfrm flipH="1">
+          <a:off x="54978480" y="21530160"/>
+          <a:ext cx="8055360" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4143,26 +4108,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>681120</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>724320</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>745200</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:colOff>761400</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="CustomShape 1"/>
+        <xdr:cNvPr id="50" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="46981800" y="20918160"/>
-          <a:ext cx="8074800" cy="360"/>
+        <a:xfrm flipH="1">
+          <a:off x="50212800" y="21682800"/>
+          <a:ext cx="4841640" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4207,26 +4172,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>685440</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>764640</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>734040</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>802080</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="CustomShape 1"/>
+        <xdr:cNvPr id="51" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="54996840" y="21530160"/>
-          <a:ext cx="8058960" cy="360"/>
+        <a:xfrm flipV="1">
+          <a:off x="48651840" y="23051160"/>
+          <a:ext cx="1638720" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4272,25 +4237,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>725040</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:colOff>707760</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>762480</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>745200</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="CustomShape 1"/>
+        <xdr:cNvPr id="52" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="50230080" y="21682800"/>
-          <a:ext cx="4843800" cy="360"/>
+        <a:xfrm flipV="1">
+          <a:off x="50196240" y="23508360"/>
+          <a:ext cx="1639080" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4335,26 +4300,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>764640</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>714240</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>802440</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>704520</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="CustomShape 1"/>
+        <xdr:cNvPr id="53" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="48667680" y="23051880"/>
-          <a:ext cx="1639800" cy="360"/>
+        <a:xfrm flipH="1">
+          <a:off x="12965040" y="23806800"/>
+          <a:ext cx="40430880" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4397,134 +4362,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>707760</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>745560</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="50212800" y="23509080"/>
-          <a:ext cx="1639800" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>704880</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="12967560" y="23806800"/>
-          <a:ext cx="40446720" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4535,8 +4372,8 @@
   </sheetPr>
   <dimension ref="A2:AO123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="5" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C87" activeCellId="0" sqref="C87"/>
     </sheetView>
@@ -4547,7 +4384,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="9" style="1" width="22.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="28.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="22.7"/>
@@ -5798,23 +5635,548 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="55.7"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="37"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="41"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="41"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -5843,4 +6205,30 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/RMSXRouteFillTest/RMSXRouteFillTest_SequenceDiagram.xlsx
+++ b/RMSXRouteFillTest/RMSXRouteFillTest_SequenceDiagram.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="167">
   <si>
     <t xml:space="preserve">RouteFillTest</t>
   </si>
@@ -314,6 +314,9 @@
     <t xml:space="preserve">Meaning</t>
   </si>
   <si>
+    <t xml:space="preserve">Acronym</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMSX_STATUS</t>
   </si>
   <si>
@@ -326,9 +329,15 @@
     <t xml:space="preserve">New route created</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_NEW</t>
+  </si>
+  <si>
     <t xml:space="preserve">Working amount set on route (can be ignored)</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_SET_WORKING_AMOUNT</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMSX_WORKING</t>
   </si>
   <si>
@@ -341,12 +350,18 @@
     <t xml:space="preserve">ACK received from broker</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_NEW_BROKER_ACK</t>
+  </si>
+  <si>
     <t xml:space="preserve">PARTFILL</t>
   </si>
   <si>
     <t xml:space="preserve">First fill of multiple fills (&lt; 100%)</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_FILL_FIRST_MULTI</t>
+  </si>
+  <si>
     <t xml:space="preserve">n</t>
   </si>
   <si>
@@ -356,72 +371,129 @@
     <t xml:space="preserve">Middle fill of multiple fills (&lt; 100%)</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_FILL_MULTI</t>
+  </si>
+  <si>
     <t xml:space="preserve">FILLED</t>
   </si>
   <si>
     <t xml:space="preserve">Final fill of multiple fills (100%)</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_FILL_FINAL_MULTI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Full single fill</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_FILL_FIRST_FULL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Historic 100% fill on INIT_PAINT</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_INIT_PAINT_FILLED</t>
+  </si>
+  <si>
     <t xml:space="preserve">Working route on INIT_PAINT</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_INIT_PAINT_WORKING</t>
+  </si>
+  <si>
     <t xml:space="preserve">Part filled route on INIT_PAINT</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_INIT_PAINT_PARTFILL</t>
+  </si>
+  <si>
     <t xml:space="preserve">CXLREQ</t>
   </si>
   <si>
     <t xml:space="preserve">Cancel requested on route in INIT_PAINT</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_INIT_PAINT_CANCEL_REQUESTED</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cancel route request sent</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_CANCEL_REQUESTED_ON_WORKING</t>
+  </si>
+  <si>
     <t xml:space="preserve">Broker rejected cancel request</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_CANCEL_REJECTED_ON_WORKING_FROM_REQUEST</t>
+  </si>
+  <si>
     <t xml:space="preserve">CXLPEN</t>
   </si>
   <si>
     <t xml:space="preserve">Broker sent ACK for cancel request</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_CANCEL_BROKER_ACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_CANCEL_REJECTED_ON_WORKING_FROM_PENDING</t>
+  </si>
+  <si>
     <t xml:space="preserve">CANCEL</t>
   </si>
   <si>
     <t xml:space="preserve">Broker cancelled route from request</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_CANCEL_FROM_REQUESTED</t>
+  </si>
+  <si>
     <t xml:space="preserve">Broker cancelled route from pending status</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_CANCEL_FROM_PENDING</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cancel requested on part filled route</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_CANCEL_REQUESTED_ON_PARTFILL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Broker rejected cancel request on part filled route</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_CANCEL_REJECTED_ON_PARTFILL_FROM_REQUEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_CANCEL_REJECTED_ON_PARTFILL_FROM_PENDING</t>
+  </si>
+  <si>
     <t xml:space="preserve">CXLRPRQ</t>
   </si>
   <si>
     <t xml:space="preserve">Modify (cancel/replace) request sent to broker on working route</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_MODIFY_REQUESTED_ON_WORKING</t>
+  </si>
+  <si>
     <t xml:space="preserve">REPPEN</t>
   </si>
   <si>
     <t xml:space="preserve">Broker sent ACK for modify request</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_MODIFY_BROKER_ACK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Broker rejected modify request on working route</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_MODIFY_REJECTED_ON_WORKING</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMSX_BROKER_STATUS</t>
   </si>
   <si>
@@ -434,16 +506,28 @@
     <t xml:space="preserve">Broker accepted and applied the modify request on working route</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_MODIFY_APPLIED_ON_WORKING</t>
+  </si>
+  <si>
     <t xml:space="preserve">MODIFIED</t>
   </si>
   <si>
     <t xml:space="preserve">Modify (cancel/replace) request sent to broker on part filled route</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_MODIFY_REQUESTED_ON_PARTFILL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Broker rejected modify request on part filled route</t>
   </si>
   <si>
+    <t xml:space="preserve">ROUTE_MODIFY_REJECTED_ON_PARTFILL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Broker accepted and applied the modify request on part filled route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_MODIFY_APPLIED_ON_PARTFILL</t>
   </si>
 </sst>
 </file>
@@ -453,7 +537,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -494,6 +578,13 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -652,7 +743,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -733,16 +824,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -782,6 +873,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -912,9 +1011,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>549720</xdr:colOff>
+      <xdr:colOff>549360</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -924,7 +1023,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="698400" y="1886040"/>
-          <a:ext cx="10982520" cy="20520"/>
+          <a:ext cx="10982160" cy="20160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -976,9 +1075,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -988,7 +1087,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11713680" y="2838600"/>
-          <a:ext cx="10971000" cy="11520"/>
+          <a:ext cx="10971360" cy="11160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1040,7 +1139,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>770760</xdr:colOff>
+      <xdr:colOff>770400</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
@@ -1052,7 +1151,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="11659320" y="3039480"/>
-          <a:ext cx="10971000" cy="360"/>
+          <a:ext cx="10971360" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1098,15 +1197,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>659880</xdr:colOff>
+      <xdr:colOff>659160</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>95400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>528120</xdr:colOff>
+      <xdr:colOff>527040</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1115,8 +1214,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="659880" y="3524400"/>
-          <a:ext cx="10999440" cy="3600"/>
+          <a:off x="659160" y="3524400"/>
+          <a:ext cx="10999080" cy="3240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1168,7 +1267,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>740160</xdr:colOff>
+      <xdr:colOff>739800</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
@@ -1180,7 +1279,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="702720" y="4878720"/>
-          <a:ext cx="13889880" cy="360"/>
+          <a:ext cx="13890240" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1226,13 +1325,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>635040</xdr:colOff>
+      <xdr:colOff>634320</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>74160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>644760</xdr:colOff>
+      <xdr:colOff>643680</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
@@ -1243,8 +1342,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="635040" y="5027040"/>
-          <a:ext cx="13862160" cy="360"/>
+          <a:off x="634320" y="5027040"/>
+          <a:ext cx="13862520" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1296,7 +1395,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>717480</xdr:colOff>
+      <xdr:colOff>717120</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
@@ -1308,7 +1407,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="622800" y="5636880"/>
-          <a:ext cx="30365640" cy="360"/>
+          <a:ext cx="30366000" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1360,9 +1459,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>718920</xdr:colOff>
+      <xdr:colOff>718560</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1372,7 +1471,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="690120" y="6237720"/>
-          <a:ext cx="31901040" cy="7920"/>
+          <a:ext cx="31901400" cy="7560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1424,9 +1523,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>658440</xdr:colOff>
+      <xdr:colOff>658080</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1436,7 +1535,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="633600" y="6718320"/>
-          <a:ext cx="31897080" cy="5760"/>
+          <a:ext cx="31897440" cy="5400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1484,13 +1583,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>624960</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>687600</xdr:colOff>
+      <xdr:colOff>687240</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1499,8 +1598,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="29294280" y="6396480"/>
-          <a:ext cx="3265560" cy="360"/>
+          <a:off x="29295000" y="6395760"/>
+          <a:ext cx="3265200" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1546,15 +1645,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>635040</xdr:colOff>
+      <xdr:colOff>634320</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>655560</xdr:colOff>
+      <xdr:colOff>654480</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1563,8 +1662,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="29304360" y="6549480"/>
-          <a:ext cx="3223440" cy="360"/>
+          <a:off x="29304360" y="6548760"/>
+          <a:ext cx="3223080" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1616,7 +1715,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>750960</xdr:colOff>
+      <xdr:colOff>750600</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
@@ -1628,7 +1727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="694440" y="7461360"/>
-          <a:ext cx="36733320" cy="360"/>
+          <a:ext cx="36733680" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1676,13 +1775,13 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>650160</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>712800</xdr:colOff>
+      <xdr:colOff>712440</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1691,8 +1790,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="34124040" y="7630560"/>
-          <a:ext cx="3265560" cy="360"/>
+          <a:off x="34124760" y="7629840"/>
+          <a:ext cx="3265200" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1738,15 +1837,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>660240</xdr:colOff>
+      <xdr:colOff>659520</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>680760</xdr:colOff>
+      <xdr:colOff>679680</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1755,8 +1854,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="34134120" y="7772760"/>
-          <a:ext cx="3223440" cy="360"/>
+          <a:off x="34134120" y="7772040"/>
+          <a:ext cx="3223080" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1802,13 +1901,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>634320</xdr:colOff>
+      <xdr:colOff>633600</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>78480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>712080</xdr:colOff>
+      <xdr:colOff>711000</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
@@ -1819,8 +1918,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="634320" y="7926840"/>
-          <a:ext cx="36754560" cy="360"/>
+          <a:off x="633600" y="7926840"/>
+          <a:ext cx="36754920" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1872,7 +1971,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>718560</xdr:colOff>
+      <xdr:colOff>718200</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
@@ -1884,7 +1983,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="2158920" y="9609480"/>
-          <a:ext cx="15615000" cy="360"/>
+          <a:ext cx="15615360" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1932,13 +2031,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>577080</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>755640</xdr:colOff>
+      <xdr:colOff>755280</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1947,455 +2046,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="577080" y="9743040"/>
-          <a:ext cx="1639440" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>642240</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>707040</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="26108640" y="10356840"/>
-          <a:ext cx="8072280" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>645480</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>707760</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="34119360" y="10513440"/>
-          <a:ext cx="8069760" cy="9720"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>708120</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>712080</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3770640" y="10670400"/>
-          <a:ext cx="30415320" cy="5760"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>650520</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>748800</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2111400" y="11118960"/>
-          <a:ext cx="1699920" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>655920</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>729360</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5381280" y="11732760"/>
-          <a:ext cx="14004720" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>697320</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>722520</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3759840" y="11889360"/>
-          <a:ext cx="1688040" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>651960</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>689760</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="42133320" y="12189960"/>
+          <a:off x="577080" y="9742320"/>
           <a:ext cx="1639080" cy="360"/>
         </a:xfrm>
         <a:custGeom>
@@ -2441,26 +2092,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>623880</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>642240</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>661680</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>706680</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="CustomShape 1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="43706520" y="12337920"/>
-          <a:ext cx="1639440" cy="360"/>
+        <a:xfrm flipV="1">
+          <a:off x="26109360" y="10356120"/>
+          <a:ext cx="8071920" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2505,26 +2156,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>686520</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>645480</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>707400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="CustomShape 1"/>
+        <xdr:cNvPr id="18" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3749040" y="12494880"/>
-          <a:ext cx="40019400" cy="360"/>
+          <a:off x="34120080" y="10513440"/>
+          <a:ext cx="8069040" cy="9360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2570,15 +2221,463 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
+      <xdr:colOff>708120</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>78840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>711720</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>84240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3770640" y="10670400"/>
+          <a:ext cx="30415680" cy="5400"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>650520</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>69840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>70200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2111400" y="11118240"/>
+          <a:ext cx="1699560" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>655200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>74160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>728280</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5380560" y="11732760"/>
+          <a:ext cx="14005080" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>697320</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>722160</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>78840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3759840" y="11889360"/>
+          <a:ext cx="1687680" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>651960</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>689400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>74160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="42133680" y="12189240"/>
+          <a:ext cx="1639080" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>623880</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>69840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>661320</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>70200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="43707240" y="12337920"/>
+          <a:ext cx="1638720" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>686520</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>685440</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3749040" y="12494880"/>
+          <a:ext cx="40019760" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>95400</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>53280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>285120</xdr:colOff>
+      <xdr:colOff>284760</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2588,7 +2687,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3157920" y="11102040"/>
-          <a:ext cx="189720" cy="1381320"/>
+          <a:ext cx="189360" cy="1380960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2639,13 +2738,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>767160</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>764280</xdr:colOff>
+      <xdr:colOff>763920</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2654,8 +2753,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="31038120" y="13428360"/>
-          <a:ext cx="8004240" cy="360"/>
+          <a:off x="31038840" y="13427640"/>
+          <a:ext cx="8003880" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2703,13 +2802,13 @@
       <xdr:col>27</xdr:col>
       <xdr:colOff>595440</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>68400</xdr:rowOff>
+      <xdr:rowOff>67680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>694440</xdr:colOff>
+      <xdr:colOff>694080</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2718,8 +2817,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="43678080" y="14336280"/>
-          <a:ext cx="3301920" cy="360"/>
+          <a:off x="43678800" y="14335560"/>
+          <a:ext cx="3301560" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2767,13 +2866,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>733680</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>68400</xdr:rowOff>
+      <xdr:rowOff>67680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>747360</xdr:colOff>
+      <xdr:colOff>747000</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2782,8 +2881,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="29403000" y="14945760"/>
-          <a:ext cx="9622440" cy="360"/>
+          <a:off x="29403720" y="14945040"/>
+          <a:ext cx="9622080" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2835,7 +2934,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>693360</xdr:colOff>
+      <xdr:colOff>693000</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
@@ -2846,7 +2945,839 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="46941840" y="13728600"/>
+          <a:off x="46942560" y="13728600"/>
+          <a:ext cx="1638000" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>696960</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>74160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>695520</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="38975760" y="15104520"/>
+          <a:ext cx="9607320" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>697320</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>78840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>721800</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>79200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="38976120" y="13889880"/>
+          <a:ext cx="8031960" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>750240</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>70200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>745200</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>70560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3812760" y="15710040"/>
+          <a:ext cx="35211240" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>641160</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>76320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>677880</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>76680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="45325800" y="16183080"/>
+          <a:ext cx="4841280" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>757080</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>772920</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="51847560" y="16801920"/>
+          <a:ext cx="3219120" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>688680</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>725400</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="56583720" y="16954200"/>
+          <a:ext cx="1638360" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>732600</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>79920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>694080</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>80280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="29402640" y="17558640"/>
+          <a:ext cx="30389400" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>678960</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>75240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>699120</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>75600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="27747720" y="5333040"/>
+          <a:ext cx="3223080" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>721800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>79200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>784080</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>79560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="27790560" y="5488920"/>
+          <a:ext cx="3265200" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>800640</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>79560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>761040</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>79920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29470680" y="17710920"/>
+          <a:ext cx="30388320" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>665280</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>88920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>684360</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="26132400" y="18329760"/>
+          <a:ext cx="33649920" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>743040</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>751320</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>89640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26210160" y="18482400"/>
+          <a:ext cx="33639120" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>678240</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>715680</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="58174920" y="19087920"/>
           <a:ext cx="1638720" cy="360"/>
         </a:xfrm>
         <a:custGeom>
@@ -2892,26 +3823,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>697680</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>713880</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>696600</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>685440</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="CustomShape 1"/>
+        <xdr:cNvPr id="44" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="38975760" y="15104520"/>
-          <a:ext cx="9608040" cy="360"/>
+          <a:off x="10243800" y="19701360"/>
+          <a:ext cx="51141240" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2956,26 +3887,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>698040</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>676080</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>722880</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>713520</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="CustomShape 1"/>
+        <xdr:cNvPr id="45" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="38976120" y="13889880"/>
-          <a:ext cx="8032320" cy="360"/>
+          <a:off x="59774040" y="20006280"/>
+          <a:ext cx="1639080" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3020,26 +3951,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>750960</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>742680</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>746280</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>779760</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="CustomShape 1"/>
+        <xdr:cNvPr id="46" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3813480" y="15710040"/>
-          <a:ext cx="35210880" cy="360"/>
+          <a:off x="58239360" y="20158560"/>
+          <a:ext cx="1638360" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3084,25 +4015,217 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>641160</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>541800</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>678240</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>675000</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="CustomShape 1"/>
+        <xdr:cNvPr id="47" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="51632280" y="20285640"/>
+          <a:ext cx="3336480" cy="11520"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>681120</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>744480</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="45325440" y="16183800"/>
+          <a:off x="46967400" y="20916720"/>
+          <a:ext cx="8070840" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>684720</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>88920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>732600</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="54978480" y="21530160"/>
+          <a:ext cx="8055000" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>724320</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>761040</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>89640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="50213520" y="21682800"/>
           <a:ext cx="4841280" cy="360"/>
         </a:xfrm>
         <a:custGeom>
@@ -3148,89 +4271,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>757080</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>764640</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>773280</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>801720</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="CustomShape 1"/>
+        <xdr:cNvPr id="51" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="51847200" y="16802640"/>
-          <a:ext cx="3219120" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>688680</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>725760</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="56583000" y="16954920"/>
+          <a:off x="48652200" y="23050440"/>
           <a:ext cx="1638720" cy="360"/>
         </a:xfrm>
         <a:custGeom>
@@ -3276,26 +4335,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>733320</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>707760</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>695160</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>744840</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="CustomShape 1"/>
+        <xdr:cNvPr id="52" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="29402640" y="17558640"/>
-          <a:ext cx="30389760" cy="360"/>
+        <a:xfrm flipV="1">
+          <a:off x="50196960" y="23507640"/>
+          <a:ext cx="1638360" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3340,26 +4399,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>679680</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>713520</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>700200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>703440</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="CustomShape 1"/>
+        <xdr:cNvPr id="53" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="27747720" y="5333760"/>
-          <a:ext cx="3223440" cy="360"/>
+        <a:xfrm flipH="1">
+          <a:off x="12965040" y="23806800"/>
+          <a:ext cx="40430520" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3402,966 +4461,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>721800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="27789840" y="5489640"/>
-          <a:ext cx="3265560" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>800640</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>761400</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="29469960" y="17710920"/>
-          <a:ext cx="30388680" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>665280</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>684720</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="26131680" y="18329760"/>
-          <a:ext cx="33650280" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>743040</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>751680</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="26209440" y="18482400"/>
-          <a:ext cx="33639480" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>678240</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="58174200" y="19088640"/>
-          <a:ext cx="1639080" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>714600</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>686520</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10244520" y="19701360"/>
-          <a:ext cx="51140880" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>676800</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>714600</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="59774040" y="20006280"/>
-          <a:ext cx="1639440" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>743400</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>780840</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="58239360" y="20158560"/>
-          <a:ext cx="1638720" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>675360</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="51631920" y="20285640"/>
-          <a:ext cx="3336480" cy="11880"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>681120</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>744840</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="46966680" y="20917440"/>
-          <a:ext cx="8071200" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>685440</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>733680</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="54978480" y="21530160"/>
-          <a:ext cx="8055360" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>724320</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>761400</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="50212800" y="21682800"/>
-          <a:ext cx="4841640" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>764640</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>802080</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="48651840" y="23051160"/>
-          <a:ext cx="1638720" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>707760</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>745200</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="50196240" y="23508360"/>
-          <a:ext cx="1639080" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>704520</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="12965040" y="23806800"/>
-          <a:ext cx="40430880" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4384,7 +4483,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="9" style="1" width="22.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="28.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="22.7"/>
@@ -5635,10 +5734,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5647,6 +5746,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="55.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="57.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5662,514 +5763,618 @@
       <c r="D1" s="13" t="s">
         <v>94</v>
       </c>
+      <c r="E1" s="13" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="B4" s="18" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>97</v>
-      </c>
       <c r="C4" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="21" t="n">
+        <v>101</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>101</v>
+      <c r="C5" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="D5" s="19"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="21" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="B8" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="C12" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="24" t="s">
+      <c r="C13" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>104</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>101</v>
       </c>
       <c r="C14" s="27" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="25"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B15" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>95</v>
-      </c>
       <c r="B16" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="s">
-        <v>95</v>
-      </c>
       <c r="B17" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>95</v>
-      </c>
       <c r="B18" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28" t="s">
-        <v>95</v>
-      </c>
       <c r="B19" s="29" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>138</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>142</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>144</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>144</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="37"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="41"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>96</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="41"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="37"/>
+        <v>96</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="23">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
     <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
     <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/RMSXRouteFillTest/RMSXRouteFillTest_SequenceDiagram.xlsx
+++ b/RMSXRouteFillTest/RMSXRouteFillTest_SequenceDiagram.xlsx
@@ -537,7 +537,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -585,11 +585,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -743,7 +738,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -876,14 +871,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1011,9 +998,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>549360</xdr:colOff>
+      <xdr:colOff>549000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1023,7 +1010,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="698400" y="1886040"/>
-          <a:ext cx="10982160" cy="20160"/>
+          <a:ext cx="10981800" cy="19800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1075,9 +1062,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1087,7 +1074,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11713680" y="2838600"/>
-          <a:ext cx="10971360" cy="11160"/>
+          <a:ext cx="10971000" cy="10800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1133,13 +1120,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>528120</xdr:colOff>
+      <xdr:colOff>527400</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>105840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>770400</xdr:colOff>
+      <xdr:colOff>769320</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
@@ -1150,8 +1137,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11659320" y="3039480"/>
-          <a:ext cx="10971360" cy="360"/>
+          <a:off x="11658600" y="3039480"/>
+          <a:ext cx="10971000" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1203,9 +1190,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>527040</xdr:colOff>
+      <xdr:colOff>526680</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1215,7 +1202,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="659160" y="3524400"/>
-          <a:ext cx="10999080" cy="3240"/>
+          <a:ext cx="10998720" cy="2880"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1267,7 +1254,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>739800</xdr:colOff>
+      <xdr:colOff>739440</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
@@ -1279,7 +1266,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="702720" y="4878720"/>
-          <a:ext cx="13890240" cy="360"/>
+          <a:ext cx="13889880" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1331,7 +1318,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>643680</xdr:colOff>
+      <xdr:colOff>643320</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
@@ -1343,7 +1330,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="634320" y="5027040"/>
-          <a:ext cx="13862520" cy="360"/>
+          <a:ext cx="13862160" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1389,13 +1376,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>622800</xdr:colOff>
+      <xdr:colOff>622080</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>74520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>717120</xdr:colOff>
+      <xdr:colOff>716040</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
@@ -1406,8 +1393,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="622800" y="5636880"/>
-          <a:ext cx="30366000" cy="360"/>
+          <a:off x="622080" y="5636880"/>
+          <a:ext cx="30365640" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1459,9 +1446,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>718560</xdr:colOff>
+      <xdr:colOff>718200</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1471,7 +1458,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="690120" y="6237720"/>
-          <a:ext cx="31901400" cy="7560"/>
+          <a:ext cx="31901040" cy="7200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1517,15 +1504,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>633600</xdr:colOff>
+      <xdr:colOff>632880</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>88920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>658080</xdr:colOff>
+      <xdr:colOff>657000</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1534,8 +1521,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="633600" y="6718320"/>
-          <a:ext cx="31897440" cy="5400"/>
+          <a:off x="632880" y="6718320"/>
+          <a:ext cx="31897080" cy="5040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1583,13 +1570,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>624960</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>687240</xdr:colOff>
+      <xdr:colOff>686880</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1598,8 +1585,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="29295000" y="6395760"/>
-          <a:ext cx="3265200" cy="360"/>
+          <a:off x="29295000" y="6395040"/>
+          <a:ext cx="3264840" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1647,13 +1634,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>634320</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>654480</xdr:colOff>
+      <xdr:colOff>654120</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1662,8 +1649,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="29304360" y="6548760"/>
-          <a:ext cx="3223080" cy="360"/>
+          <a:off x="29304360" y="6548040"/>
+          <a:ext cx="3222720" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1715,7 +1702,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>750600</xdr:colOff>
+      <xdr:colOff>750240</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
@@ -1727,7 +1714,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="694440" y="7461360"/>
-          <a:ext cx="36733680" cy="360"/>
+          <a:ext cx="36733320" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1775,13 +1762,13 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>650160</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>712440</xdr:colOff>
+      <xdr:colOff>712080</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1790,8 +1777,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="34124760" y="7629840"/>
-          <a:ext cx="3265200" cy="360"/>
+          <a:off x="34124760" y="7629120"/>
+          <a:ext cx="3264840" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1839,13 +1826,13 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>659520</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>679680</xdr:colOff>
+      <xdr:colOff>679320</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1854,8 +1841,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="34134120" y="7772040"/>
-          <a:ext cx="3223080" cy="360"/>
+          <a:off x="34134120" y="7771320"/>
+          <a:ext cx="3222720" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1907,7 +1894,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>711000</xdr:colOff>
+      <xdr:colOff>710640</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
@@ -1919,7 +1906,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="633600" y="7926840"/>
-          <a:ext cx="36754920" cy="360"/>
+          <a:ext cx="36754560" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1965,13 +1952,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>698040</xdr:colOff>
+      <xdr:colOff>697320</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>84600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>718200</xdr:colOff>
+      <xdr:colOff>717120</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
@@ -1982,8 +1969,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2158920" y="9609480"/>
-          <a:ext cx="15615360" cy="360"/>
+          <a:off x="2158200" y="9609480"/>
+          <a:ext cx="15615000" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2031,13 +2018,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>577080</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>755280</xdr:colOff>
+      <xdr:colOff>754920</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2046,519 +2033,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="577080" y="9742320"/>
-          <a:ext cx="1639080" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>642240</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>706680</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="26109360" y="10356120"/>
-          <a:ext cx="8071920" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>645480</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>707400</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="34120080" y="10513440"/>
-          <a:ext cx="8069040" cy="9360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>708120</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>711720</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3770640" y="10670400"/>
-          <a:ext cx="30415680" cy="5400"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>650520</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>748440</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2111400" y="11118240"/>
-          <a:ext cx="1699560" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>655200</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>728280</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5380560" y="11732760"/>
-          <a:ext cx="14005080" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>697320</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>722160</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3759840" y="11889360"/>
-          <a:ext cx="1687680" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>651960</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>689400</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="42133680" y="12189240"/>
-          <a:ext cx="1639080" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>623880</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>661320</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="43707240" y="12337920"/>
+          <a:off x="577080" y="9741600"/>
           <a:ext cx="1638720" cy="360"/>
         </a:xfrm>
         <a:custGeom>
@@ -2604,26 +2079,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>686520</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>642240</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>685440</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>706320</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="CustomShape 1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3749040" y="12494880"/>
-          <a:ext cx="40019760" cy="360"/>
+        <a:xfrm flipV="1">
+          <a:off x="26109360" y="10355400"/>
+          <a:ext cx="8071560" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2668,6 +2143,518 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>644760</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>74160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>706320</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>83160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="34119360" y="10513440"/>
+          <a:ext cx="8068680" cy="9000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>707400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>78840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>710640</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>83880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3769920" y="10670400"/>
+          <a:ext cx="30415320" cy="5040"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>650520</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>69120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>748080</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>69480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2111400" y="11117520"/>
+          <a:ext cx="1699200" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>655200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>74160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>727920</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5380560" y="11732760"/>
+          <a:ext cx="14004720" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>696600</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>721080</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>78840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3759120" y="11889360"/>
+          <a:ext cx="1687320" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>651960</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>73080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>689040</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>73440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="42133680" y="12188520"/>
+          <a:ext cx="1638720" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>623160</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>69840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>660240</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>70200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="43706520" y="12337920"/>
+          <a:ext cx="1638360" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>684360</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3748320" y="12494880"/>
+          <a:ext cx="40019400" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95400</xdr:colOff>
       <xdr:row>60</xdr:row>
@@ -2675,9 +2662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>284760</xdr:colOff>
+      <xdr:colOff>284400</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2687,7 +2674,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3157920" y="11102040"/>
-          <a:ext cx="189360" cy="1380960"/>
+          <a:ext cx="189000" cy="1380600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2738,13 +2725,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>767160</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>763920</xdr:colOff>
+      <xdr:colOff>763560</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2753,8 +2740,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="31038840" y="13427640"/>
-          <a:ext cx="8003880" cy="360"/>
+          <a:off x="31038840" y="13426920"/>
+          <a:ext cx="8003520" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2802,13 +2789,13 @@
       <xdr:col>27</xdr:col>
       <xdr:colOff>595440</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>694080</xdr:colOff>
+      <xdr:colOff>693720</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2817,8 +2804,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="43678800" y="14335560"/>
-          <a:ext cx="3301560" cy="360"/>
+          <a:off x="43678800" y="14334840"/>
+          <a:ext cx="3301200" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2866,13 +2853,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>733680</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>747000</xdr:colOff>
+      <xdr:colOff>746640</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2881,8 +2868,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="29403720" y="14945040"/>
-          <a:ext cx="9622080" cy="360"/>
+          <a:off x="29403720" y="14944320"/>
+          <a:ext cx="9621720" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2928,13 +2915,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>656280</xdr:colOff>
+      <xdr:colOff>655560</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>69840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>693000</xdr:colOff>
+      <xdr:colOff>691920</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
@@ -2945,7 +2932,391 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="46942560" y="13728600"/>
+          <a:off x="46941840" y="13728600"/>
+          <a:ext cx="1637640" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>696960</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>74160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>695160</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="38975760" y="15104520"/>
+          <a:ext cx="9606960" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>697320</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>78840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>721440</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>79200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="38976120" y="13889880"/>
+          <a:ext cx="8031600" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>750240</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>70200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>744840</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>70560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3812760" y="15710040"/>
+          <a:ext cx="35210880" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>641160</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>75600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>677520</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>75960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="45325800" y="16182360"/>
+          <a:ext cx="4840920" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>757080</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>84600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>772560</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>84960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="51847560" y="16801200"/>
+          <a:ext cx="3218760" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>688680</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>84600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>725040</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>84960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="56583720" y="16953480"/>
           <a:ext cx="1638000" cy="360"/>
         </a:xfrm>
         <a:custGeom>
@@ -2991,26 +3362,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>696960</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>732600</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>695520</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>693720</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="CustomShape 1"/>
+        <xdr:cNvPr id="37" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="38975760" y="15104520"/>
-          <a:ext cx="9607320" cy="360"/>
+          <a:off x="29402640" y="17558640"/>
+          <a:ext cx="30389040" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3055,26 +3426,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>697320</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>678960</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>721800</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>698760</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="CustomShape 1"/>
+        <xdr:cNvPr id="38" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="38976120" y="13889880"/>
-          <a:ext cx="8031960" cy="360"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="27747720" y="5332320"/>
+          <a:ext cx="3222720" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3119,26 +3490,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>750240</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>721800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>745200</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>783720</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="CustomShape 1"/>
+        <xdr:cNvPr id="39" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3812760" y="15710040"/>
-          <a:ext cx="35211240" cy="360"/>
+        <a:xfrm flipV="1">
+          <a:off x="27790560" y="5488200"/>
+          <a:ext cx="3264840" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3183,26 +3554,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>641160</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>800640</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>677880</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>760680</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="CustomShape 1"/>
+        <xdr:cNvPr id="40" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="45325800" y="16183080"/>
-          <a:ext cx="4841280" cy="360"/>
+        <a:xfrm>
+          <a:off x="29470680" y="17710920"/>
+          <a:ext cx="30387960" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3247,26 +3618,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>757080</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>664560</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>772920</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>683280</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="CustomShape 1"/>
+        <xdr:cNvPr id="41" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="51847560" y="16801920"/>
-          <a:ext cx="3219120" cy="360"/>
+        <a:xfrm flipH="1">
+          <a:off x="26131680" y="18329760"/>
+          <a:ext cx="33649560" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3311,25 +3682,89 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>688680</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>743040</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>725400</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>750960</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="CustomShape 1"/>
+        <xdr:cNvPr id="42" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26210160" y="18482400"/>
+          <a:ext cx="33638760" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>678240</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>84600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>715320</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>84960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="56583720" y="16954200"/>
+          <a:off x="58174920" y="19087200"/>
           <a:ext cx="1638360" cy="360"/>
         </a:xfrm>
         <a:custGeom>
@@ -3375,26 +3810,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>732600</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>713880</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>694080</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>685080</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="CustomShape 1"/>
+        <xdr:cNvPr id="44" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="29402640" y="17558640"/>
-          <a:ext cx="30389400" cy="360"/>
+          <a:off x="10243800" y="19701360"/>
+          <a:ext cx="51140880" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3439,345 +3874,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>678960</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>699120</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="27747720" y="5333040"/>
-          <a:ext cx="3223080" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>721800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>784080</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="27790560" y="5488920"/>
-          <a:ext cx="3265200" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>800640</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>761040</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="29470680" y="17710920"/>
-          <a:ext cx="30388320" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>665280</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:colOff>676080</xdr:colOff>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>88920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>684360</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>713160</xdr:colOff>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="CustomShape 1"/>
+        <xdr:cNvPr id="45" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="26132400" y="18329760"/>
-          <a:ext cx="33649920" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>743040</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>751320</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="26210160" y="18482400"/>
-          <a:ext cx="33639120" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>678240</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>715680</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="58174920" y="19087920"/>
+          <a:off x="59774040" y="20006280"/>
           <a:ext cx="1638720" cy="360"/>
         </a:xfrm>
         <a:custGeom>
@@ -3823,26 +3938,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>713880</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>742680</xdr:colOff>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>88920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>685440</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>779400</xdr:colOff>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="CustomShape 1"/>
+        <xdr:cNvPr id="46" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10243800" y="19701360"/>
-          <a:ext cx="51141240" cy="360"/>
+          <a:off x="58239360" y="20158560"/>
+          <a:ext cx="1638000" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3887,26 +4002,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>676080</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>541080</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>63000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>713520</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>673920</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="CustomShape 1"/>
+        <xdr:cNvPr id="47" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="59774040" y="20006280"/>
-          <a:ext cx="1639080" cy="360"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="51631560" y="20284920"/>
+          <a:ext cx="3336120" cy="11160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3951,25 +4066,217 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>742680</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>681120</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>84600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>744120</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>84960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="46967400" y="20916000"/>
+          <a:ext cx="8070480" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>684720</xdr:colOff>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>88920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>779760</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>732240</xdr:colOff>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="CustomShape 1"/>
+        <xdr:cNvPr id="49" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="58239360" y="20158560"/>
+          <a:off x="54978480" y="21530160"/>
+          <a:ext cx="8054640" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>723600</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>759960</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>89640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="50212800" y="21682800"/>
+          <a:ext cx="4840920" cy="360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34920">
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>764640</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>84960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>801360</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="48652200" y="23049720"/>
           <a:ext cx="1638360" cy="360"/>
         </a:xfrm>
         <a:custGeom>
@@ -4015,26 +4322,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>707760</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>675000</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>744480</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="CustomShape 1"/>
+        <xdr:cNvPr id="52" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="51632280" y="20285640"/>
-          <a:ext cx="3336480" cy="11520"/>
+        <a:xfrm flipV="1">
+          <a:off x="50196960" y="23506920"/>
+          <a:ext cx="1638000" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4079,326 +4386,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>681120</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>744480</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="46967400" y="20916720"/>
-          <a:ext cx="8070840" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>684720</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>732600</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="54978480" y="21530160"/>
-          <a:ext cx="8055000" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>724320</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>761040</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="50213520" y="21682800"/>
-          <a:ext cx="4841280" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>764640</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>801720</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="48652200" y="23050440"/>
-          <a:ext cx="1638720" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>707760</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>744840</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="50196960" y="23507640"/>
-          <a:ext cx="1638360" cy="360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34920">
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>713520</xdr:colOff>
       <xdr:row>122</xdr:row>
@@ -4406,7 +4393,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>703440</xdr:colOff>
+      <xdr:colOff>703080</xdr:colOff>
       <xdr:row>122</xdr:row>
       <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
@@ -4418,7 +4405,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="12965040" y="23806800"/>
-          <a:ext cx="40430520" cy="360"/>
+          <a:ext cx="40430160" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5737,7 +5724,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6090,7 +6077,7 @@
       <c r="D22" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="16" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6124,7 +6111,7 @@
       <c r="D24" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="16" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6141,7 +6128,7 @@
       <c r="D25" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6175,7 +6162,7 @@
       <c r="D27" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="30" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6197,19 +6184,19 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="35" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6217,16 +6204,16 @@
       <c r="A30" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="37" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6234,44 +6221,44 @@
       <c r="A31" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E32" s="43" t="s">
+      <c r="E32" s="41" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="28" t="s">
@@ -6291,49 +6278,49 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="E35" s="41" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="37" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6341,14 +6328,14 @@
       <c r="A38" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="23">

--- a/RMSXRouteFillTest/RMSXRouteFillTest_SequenceDiagram.xlsx
+++ b/RMSXRouteFillTest/RMSXRouteFillTest_SequenceDiagram.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SequenceDiagram" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="EMSX Patterns" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="SequenceDiagram" sheetId="1" r:id="rId1"/>
+    <sheet name="EMSX Patterns" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,519 +24,516 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="167">
   <si>
-    <t xml:space="preserve">RouteFillTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EasyMSX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleMSX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build Rules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProcessNotification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParseRoute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMSXFieldDataPointSource 
+    <t>RouteFillTest</t>
+  </si>
+  <si>
+    <t>EasyMSX</t>
+  </si>
+  <si>
+    <t>RuleMSX</t>
+  </si>
+  <si>
+    <t>Build Rules</t>
+  </si>
+  <si>
+    <t>ProcessNotification</t>
+  </si>
+  <si>
+    <t>ParseRoute</t>
+  </si>
+  <si>
+    <t>EMSXFieldDataPointSource 
 (DataPointSource)</t>
   </si>
   <si>
-    <t xml:space="preserve">RouteFillOccurred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShowRouteFill
+    <t>RouteFillOccurred</t>
+  </si>
+  <si>
+    <t>ShowRouteFill
 (ActionExecutor)</t>
   </si>
   <si>
-    <t xml:space="preserve">Route
+    <t>Route
 Notification</t>
   </si>
   <si>
-    <t xml:space="preserve">Field 
+    <t>Field 
 Notification</t>
   </si>
   <si>
-    <t xml:space="preserve">RuleEvaluator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleCondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExecutionAgent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WorkingRule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WorkingSetAgent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constructor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GetValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AssociateWorkingRule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Execute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddHandler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddDependantDataPointName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GetEvaluator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GetExecutor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CreateAction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CreateRuleSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CreateDataSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddRule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddDataPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddDataSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Process WorkingRule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Process Evaluator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IngestDataSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnqueueWorkingRule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dereference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Dependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create RuleCondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(condRouteFillOccurred)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add dependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(RouteStatus)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(RouteFilled)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(RouteLastShares)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done adding dependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done creating RuleCondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(actShowRouteFill)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done creating Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create RuleSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done creating RuleSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(ruleRouteFilled)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done creating Rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assign RuleCondition condRouteFillOccurred  to Rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assign Action actShowRouteFill to Rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received notification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External Event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create DataSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(newDataSet)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create DataPoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Field Notification Handler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done creating DataPoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Execute RuleSet with DataSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On first execute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start the WorkingAgent thread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">or</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On subsequent executes for same RuleSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WorkingAgent started and DataSet submitted to DataSetQueue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Execution started</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If DataSetQueue length &gt; 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For Each Rule in the RuleSet, create a WorkingRule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For each Action, get the Executor and add to WorkingRule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For each RuleCondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Evaluator and add to Working Rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For Each DependentDataPointName in Evaluator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Associate the WorkingRule with the DataPoint in the current DataSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add new WorkingRule to WorkingSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queue the WorkingRule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If WorkingRule not already in the OpenSetQueue, add it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If OpenSetQueue length &gt;0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move OpenSetQueue to OpenSet, reset OpenSetQueue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For Each WorkingRule in OpenSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For Each Evaluator in Working Rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call Evaluate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previous Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meaning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acronym</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMSX_STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New route created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_NEW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working amount set on route (can be ignored)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_SET_WORKING_AMOUNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMSX_WORKING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WORKING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACK received from broker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_NEW_BROKER_ACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARTFILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First fill of multiple fills (&lt; 100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_FILL_FIRST_MULTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;n and &gt;0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle fill of multiple fills (&lt; 100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_FILL_MULTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILLED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final fill of multiple fills (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_FILL_FINAL_MULTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full single fill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_FILL_FIRST_FULL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Historic 100% fill on INIT_PAINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_INIT_PAINT_FILLED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working route on INIT_PAINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_INIT_PAINT_WORKING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part filled route on INIT_PAINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_INIT_PAINT_PARTFILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CXLREQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel requested on route in INIT_PAINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_INIT_PAINT_CANCEL_REQUESTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel route request sent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_CANCEL_REQUESTED_ON_WORKING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker rejected cancel request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_CANCEL_REJECTED_ON_WORKING_FROM_REQUEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CXLPEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker sent ACK for cancel request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_CANCEL_BROKER_ACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_CANCEL_REJECTED_ON_WORKING_FROM_PENDING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANCEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker cancelled route from request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_CANCEL_FROM_REQUESTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker cancelled route from pending status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_CANCEL_FROM_PENDING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel requested on part filled route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_CANCEL_REQUESTED_ON_PARTFILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker rejected cancel request on part filled route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_CANCEL_REJECTED_ON_PARTFILL_FROM_REQUEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_CANCEL_REJECTED_ON_PARTFILL_FROM_PENDING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CXLRPRQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modify (cancel/replace) request sent to broker on working route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_MODIFY_REQUESTED_ON_WORKING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REPPEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker sent ACK for modify request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_MODIFY_BROKER_ACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker rejected modify request on working route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_MODIFY_REJECTED_ON_WORKING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMSX_BROKER_STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CXLRPRJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker accepted and applied the modify request on working route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_MODIFY_APPLIED_ON_WORKING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MODIFIED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modify (cancel/replace) request sent to broker on part filled route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_MODIFY_REQUESTED_ON_PARTFILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker rejected modify request on part filled route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_MODIFY_REJECTED_ON_PARTFILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker accepted and applied the modify request on part filled route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_MODIFY_APPLIED_ON_PARTFILL</t>
+    <t>RuleEvaluator</t>
+  </si>
+  <si>
+    <t>RuleCondition</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>RuleSet</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>DataSet</t>
+  </si>
+  <si>
+    <t>DataPoint</t>
+  </si>
+  <si>
+    <t>ExecutionAgent</t>
+  </si>
+  <si>
+    <t>WorkingRule</t>
+  </si>
+  <si>
+    <t>WorkingSetAgent</t>
+  </si>
+  <si>
+    <t>Constructor</t>
+  </si>
+  <si>
+    <t>GetValue</t>
+  </si>
+  <si>
+    <t>AssociateWorkingRule</t>
+  </si>
+  <si>
+    <t>Evaluate</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>AddHandler</t>
+  </si>
+  <si>
+    <t>Notify</t>
+  </si>
+  <si>
+    <t>AddDependantDataPointName</t>
+  </si>
+  <si>
+    <t>GetEvaluator</t>
+  </si>
+  <si>
+    <t>GetExecutor</t>
+  </si>
+  <si>
+    <t>CreateAction</t>
+  </si>
+  <si>
+    <t>CreateRuleSet</t>
+  </si>
+  <si>
+    <t>CreateDataSet</t>
+  </si>
+  <si>
+    <t>AddRule</t>
+  </si>
+  <si>
+    <t>AddDataPoint</t>
+  </si>
+  <si>
+    <t>AddDataSet</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Process WorkingRule</t>
+  </si>
+  <si>
+    <t>Process Evaluator</t>
+  </si>
+  <si>
+    <t>IngestDataSet</t>
+  </si>
+  <si>
+    <t>EnqueueWorkingRule</t>
+  </si>
+  <si>
+    <t>Dereference</t>
+  </si>
+  <si>
+    <t>Check Dependencies</t>
+  </si>
+  <si>
+    <t>Create RuleCondition</t>
+  </si>
+  <si>
+    <t>(condRouteFillOccurred)</t>
+  </si>
+  <si>
+    <t>Add dependencies</t>
+  </si>
+  <si>
+    <t>(RouteStatus)</t>
+  </si>
+  <si>
+    <t>(RouteFilled)</t>
+  </si>
+  <si>
+    <t>(RouteLastShares)</t>
+  </si>
+  <si>
+    <t>Done adding dependencies</t>
+  </si>
+  <si>
+    <t>Done creating RuleCondition</t>
+  </si>
+  <si>
+    <t>Create Action</t>
+  </si>
+  <si>
+    <t>(actShowRouteFill)</t>
+  </si>
+  <si>
+    <t>Done creating Action</t>
+  </si>
+  <si>
+    <t>Create RuleSet</t>
+  </si>
+  <si>
+    <t>Done creating RuleSet</t>
+  </si>
+  <si>
+    <t>Create Rule</t>
+  </si>
+  <si>
+    <t>(ruleRouteFilled)</t>
+  </si>
+  <si>
+    <t>Done creating Rule</t>
+  </si>
+  <si>
+    <t>Assign RuleCondition condRouteFillOccurred  to Rule</t>
+  </si>
+  <si>
+    <t>Assign Action actShowRouteFill to Rule</t>
+  </si>
+  <si>
+    <t>Received notification</t>
+  </si>
+  <si>
+    <t>External Event</t>
+  </si>
+  <si>
+    <t>Create DataSet</t>
+  </si>
+  <si>
+    <t>(newDataSet)</t>
+  </si>
+  <si>
+    <t>Create DataPoints</t>
+  </si>
+  <si>
+    <t>Add Field Notification Handler</t>
+  </si>
+  <si>
+    <t>Done creating DataPoints</t>
+  </si>
+  <si>
+    <t>Execute RuleSet with DataSet</t>
+  </si>
+  <si>
+    <t>On first execute</t>
+  </si>
+  <si>
+    <t>Start the WorkingAgent thread</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>On subsequent executes for same RuleSet</t>
+  </si>
+  <si>
+    <t>WorkingAgent started and DataSet submitted to DataSetQueue</t>
+  </si>
+  <si>
+    <t>Execution started</t>
+  </si>
+  <si>
+    <t>If DataSetQueue length &gt; 0</t>
+  </si>
+  <si>
+    <t>For Each Rule in the RuleSet, create a WorkingRule</t>
+  </si>
+  <si>
+    <t>For each Action, get the Executor and add to WorkingRule</t>
+  </si>
+  <si>
+    <t>For each RuleCondition</t>
+  </si>
+  <si>
+    <t>Get Evaluator and add to Working Rule</t>
+  </si>
+  <si>
+    <t>For Each DependentDataPointName in Evaluator</t>
+  </si>
+  <si>
+    <t>Associate the WorkingRule with the DataPoint in the current DataSet</t>
+  </si>
+  <si>
+    <t>Add new WorkingRule to WorkingSet</t>
+  </si>
+  <si>
+    <t>Queue the WorkingRule</t>
+  </si>
+  <si>
+    <t>If WorkingRule not already in the OpenSetQueue, add it</t>
+  </si>
+  <si>
+    <t>If OpenSetQueue length &gt;0</t>
+  </si>
+  <si>
+    <t>Move OpenSetQueue to OpenSet, reset OpenSetQueue</t>
+  </si>
+  <si>
+    <t>For Each WorkingRule in OpenSet</t>
+  </si>
+  <si>
+    <t>For Each Evaluator in Working Rule</t>
+  </si>
+  <si>
+    <t>Call Evaluate</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Previous Value</t>
+  </si>
+  <si>
+    <t>New Value</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Acronym</t>
+  </si>
+  <si>
+    <t>EMSX_STATUS</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>SENT</t>
+  </si>
+  <si>
+    <t>New route created</t>
+  </si>
+  <si>
+    <t>ROUTE_NEW</t>
+  </si>
+  <si>
+    <t>Working amount set on route (can be ignored)</t>
+  </si>
+  <si>
+    <t>ROUTE_SET_WORKING_AMOUNT</t>
+  </si>
+  <si>
+    <t>EMSX_WORKING</t>
+  </si>
+  <si>
+    <t>&gt;0</t>
+  </si>
+  <si>
+    <t>WORKING</t>
+  </si>
+  <si>
+    <t>ACK received from broker</t>
+  </si>
+  <si>
+    <t>ROUTE_NEW_BROKER_ACK</t>
+  </si>
+  <si>
+    <t>PARTFILL</t>
+  </si>
+  <si>
+    <t>First fill of multiple fills (&lt; 100%)</t>
+  </si>
+  <si>
+    <t>ROUTE_FILL_FIRST_MULTI</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>&lt;n and &gt;0</t>
+  </si>
+  <si>
+    <t>Middle fill of multiple fills (&lt; 100%)</t>
+  </si>
+  <si>
+    <t>ROUTE_FILL_MULTI</t>
+  </si>
+  <si>
+    <t>FILLED</t>
+  </si>
+  <si>
+    <t>Final fill of multiple fills (100%)</t>
+  </si>
+  <si>
+    <t>ROUTE_FILL_FINAL_MULTI</t>
+  </si>
+  <si>
+    <t>Full single fill</t>
+  </si>
+  <si>
+    <t>ROUTE_FILL_FIRST_FULL</t>
+  </si>
+  <si>
+    <t>Historic 100% fill on INIT_PAINT</t>
+  </si>
+  <si>
+    <t>ROUTE_INIT_PAINT_FILLED</t>
+  </si>
+  <si>
+    <t>Working route on INIT_PAINT</t>
+  </si>
+  <si>
+    <t>ROUTE_INIT_PAINT_WORKING</t>
+  </si>
+  <si>
+    <t>Part filled route on INIT_PAINT</t>
+  </si>
+  <si>
+    <t>ROUTE_INIT_PAINT_PARTFILL</t>
+  </si>
+  <si>
+    <t>CXLREQ</t>
+  </si>
+  <si>
+    <t>Cancel requested on route in INIT_PAINT</t>
+  </si>
+  <si>
+    <t>ROUTE_INIT_PAINT_CANCEL_REQUESTED</t>
+  </si>
+  <si>
+    <t>Cancel route request sent</t>
+  </si>
+  <si>
+    <t>ROUTE_CANCEL_REQUESTED_ON_WORKING</t>
+  </si>
+  <si>
+    <t>Broker rejected cancel request</t>
+  </si>
+  <si>
+    <t>ROUTE_CANCEL_REJECTED_ON_WORKING_FROM_REQUEST</t>
+  </si>
+  <si>
+    <t>CXLPEN</t>
+  </si>
+  <si>
+    <t>Broker sent ACK for cancel request</t>
+  </si>
+  <si>
+    <t>ROUTE_CANCEL_BROKER_ACK</t>
+  </si>
+  <si>
+    <t>ROUTE_CANCEL_REJECTED_ON_WORKING_FROM_PENDING</t>
+  </si>
+  <si>
+    <t>CANCEL</t>
+  </si>
+  <si>
+    <t>Broker cancelled route from request</t>
+  </si>
+  <si>
+    <t>ROUTE_CANCEL_FROM_REQUESTED</t>
+  </si>
+  <si>
+    <t>Broker cancelled route from pending status</t>
+  </si>
+  <si>
+    <t>ROUTE_CANCEL_FROM_PENDING</t>
+  </si>
+  <si>
+    <t>Cancel requested on part filled route</t>
+  </si>
+  <si>
+    <t>ROUTE_CANCEL_REQUESTED_ON_PARTFILL</t>
+  </si>
+  <si>
+    <t>Broker rejected cancel request on part filled route</t>
+  </si>
+  <si>
+    <t>ROUTE_CANCEL_REJECTED_ON_PARTFILL_FROM_REQUEST</t>
+  </si>
+  <si>
+    <t>ROUTE_CANCEL_REJECTED_ON_PARTFILL_FROM_PENDING</t>
+  </si>
+  <si>
+    <t>CXLRPRQ</t>
+  </si>
+  <si>
+    <t>Modify (cancel/replace) request sent to broker on working route</t>
+  </si>
+  <si>
+    <t>ROUTE_MODIFY_REQUESTED_ON_WORKING</t>
+  </si>
+  <si>
+    <t>REPPEN</t>
+  </si>
+  <si>
+    <t>Broker sent ACK for modify request</t>
+  </si>
+  <si>
+    <t>ROUTE_MODIFY_BROKER_ACK</t>
+  </si>
+  <si>
+    <t>Broker rejected modify request on working route</t>
+  </si>
+  <si>
+    <t>ROUTE_MODIFY_REJECTED_ON_WORKING</t>
+  </si>
+  <si>
+    <t>EMSX_BROKER_STATUS</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CXLRPRJ</t>
+  </si>
+  <si>
+    <t>Broker accepted and applied the modify request on working route</t>
+  </si>
+  <si>
+    <t>ROUTE_MODIFY_APPLIED_ON_WORKING</t>
+  </si>
+  <si>
+    <t>MODIFIED</t>
+  </si>
+  <si>
+    <t>Modify (cancel/replace) request sent to broker on part filled route</t>
+  </si>
+  <si>
+    <t>ROUTE_MODIFY_REQUESTED_ON_PARTFILL</t>
+  </si>
+  <si>
+    <t>Broker rejected modify request on part filled route</t>
+  </si>
+  <si>
+    <t>ROUTE_MODIFY_REJECTED_ON_PARTFILL</t>
+  </si>
+  <si>
+    <t>Broker accepted and applied the modify request on part filled route</t>
+  </si>
+  <si>
+    <t>ROUTE_MODIFY_APPLIED_ON_PARTFILL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -546,32 +542,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF558ED5"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -614,316 +589,292 @@
     </fill>
   </fills>
   <borders count="14">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="44">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -982,13 +933,26 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1002,9 +966,9 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>115200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1016,6 +980,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1031,11 +996,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1066,9 +1031,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1080,6 +1045,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1095,11 +1061,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1130,9 +1096,9 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1144,6 +1110,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1159,11 +1126,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1194,9 +1161,9 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1208,6 +1175,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1223,11 +1191,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1258,9 +1226,9 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1272,6 +1240,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1287,11 +1256,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1322,9 +1291,9 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1336,6 +1305,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1351,11 +1321,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1386,9 +1356,9 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1400,6 +1370,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1415,11 +1386,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1450,9 +1421,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvPr id="9" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1464,6 +1435,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1479,11 +1451,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1514,9 +1486,9 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1"/>
+        <xdr:cNvPr id="10" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1528,6 +1500,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1543,11 +1516,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1578,9 +1551,9 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>71280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1"/>
+        <xdr:cNvPr id="11" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1592,6 +1565,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1607,11 +1581,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1642,9 +1616,9 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1"/>
+        <xdr:cNvPr id="12" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1656,6 +1630,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1671,11 +1646,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1706,9 +1681,9 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1"/>
+        <xdr:cNvPr id="13" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1720,6 +1695,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1735,11 +1711,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1770,9 +1746,9 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1"/>
+        <xdr:cNvPr id="14" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1784,6 +1760,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1799,11 +1776,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1834,9 +1811,9 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvPr id="15" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1848,6 +1825,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1863,11 +1841,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1898,9 +1876,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvPr id="16" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1912,6 +1890,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1927,11 +1906,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1962,9 +1941,9 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1976,6 +1955,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1991,11 +1971,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="ffffff"/>
+            <a:srgbClr val="FFFFFF"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2026,9 +2006,9 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1"/>
+        <xdr:cNvPr id="18" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2040,6 +2020,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2055,11 +2036,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2090,9 +2071,9 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
+        <xdr:cNvPr id="19" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2104,6 +2085,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2119,11 +2101,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2154,9 +2136,9 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CustomShape 1"/>
+        <xdr:cNvPr id="20" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2168,6 +2150,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2183,11 +2166,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2218,9 +2201,9 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1"/>
+        <xdr:cNvPr id="21" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2232,6 +2215,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2247,11 +2231,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2282,9 +2266,9 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>69480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CustomShape 1"/>
+        <xdr:cNvPr id="22" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2296,6 +2280,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2311,11 +2296,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2346,9 +2331,9 @@
       <xdr:row>63</xdr:row>
       <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="CustomShape 1"/>
+        <xdr:cNvPr id="23" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2360,6 +2345,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2375,11 +2361,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2410,9 +2396,9 @@
       <xdr:row>64</xdr:row>
       <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="CustomShape 1"/>
+        <xdr:cNvPr id="24" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2424,6 +2410,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2439,11 +2426,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2474,9 +2461,9 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="CustomShape 1"/>
+        <xdr:cNvPr id="25" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2488,6 +2475,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2503,11 +2491,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2538,9 +2526,9 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="CustomShape 1"/>
+        <xdr:cNvPr id="26" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2552,6 +2540,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2567,11 +2556,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2602,9 +2591,9 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="CustomShape 1"/>
+        <xdr:cNvPr id="27" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2616,6 +2605,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2631,11 +2621,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2666,9 +2656,9 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="CustomShape 1"/>
+        <xdr:cNvPr id="28" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2680,23 +2670,30 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:srgbClr val="ffffff"/>
+            <a:srgbClr val="FFFFFF"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr" vert="vert270" rot="16200000"/>
+        <a:bodyPr rot="16200000" vert="vert270" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr">
             <a:lnSpc>
@@ -2704,15 +2701,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-GB" sz="900" spc="-1" strike="noStrike">
+            <a:rPr lang="en-GB" sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="558ed5"/>
+                <a:srgbClr val="558ED5"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Repeat for each DataPoint</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-GB" sz="900" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-GB" sz="900" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2733,9 +2730,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="CustomShape 1"/>
+        <xdr:cNvPr id="29" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2747,6 +2744,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2762,11 +2760,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2797,9 +2795,9 @@
       <xdr:row>79</xdr:row>
       <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="CustomShape 1"/>
+        <xdr:cNvPr id="30" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2811,6 +2809,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2826,11 +2825,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="ffffff"/>
+            <a:srgbClr val="FFFFFF"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2861,9 +2860,9 @@
       <xdr:row>82</xdr:row>
       <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="CustomShape 1"/>
+        <xdr:cNvPr id="31" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2875,6 +2874,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2890,11 +2890,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2925,9 +2925,9 @@
       <xdr:row>76</xdr:row>
       <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="CustomShape 1"/>
+        <xdr:cNvPr id="32" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2939,6 +2939,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2954,11 +2955,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2989,9 +2990,9 @@
       <xdr:row>83</xdr:row>
       <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="CustomShape 1"/>
+        <xdr:cNvPr id="33" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3003,6 +3004,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3018,11 +3020,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3053,9 +3055,9 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="CustomShape 1"/>
+        <xdr:cNvPr id="34" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3067,6 +3069,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3082,11 +3085,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3117,9 +3120,9 @@
       <xdr:row>85</xdr:row>
       <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="CustomShape 1"/>
+        <xdr:cNvPr id="35" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3131,6 +3134,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3146,11 +3150,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3181,9 +3185,9 @@
       <xdr:row>88</xdr:row>
       <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="CustomShape 1"/>
+        <xdr:cNvPr id="36" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3195,6 +3199,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3210,11 +3215,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3245,9 +3250,9 @@
       <xdr:row>90</xdr:row>
       <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="CustomShape 1"/>
+        <xdr:cNvPr id="37" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3259,6 +3264,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3274,11 +3280,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3309,9 +3315,9 @@
       <xdr:row>91</xdr:row>
       <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="CustomShape 1"/>
+        <xdr:cNvPr id="38" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3323,6 +3329,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3338,11 +3345,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3373,9 +3380,9 @@
       <xdr:row>93</xdr:row>
       <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="CustomShape 1"/>
+        <xdr:cNvPr id="39" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3387,6 +3394,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3402,11 +3410,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3437,9 +3445,9 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="CustomShape 1"/>
+        <xdr:cNvPr id="40" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3451,6 +3459,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3466,11 +3475,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3501,9 +3510,9 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="CustomShape 1"/>
+        <xdr:cNvPr id="41" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3515,6 +3524,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3530,11 +3540,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3565,9 +3575,9 @@
       <xdr:row>94</xdr:row>
       <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="CustomShape 1"/>
+        <xdr:cNvPr id="42" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3579,6 +3589,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3594,11 +3605,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3629,9 +3640,9 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="CustomShape 1"/>
+        <xdr:cNvPr id="43" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3643,6 +3654,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3658,11 +3670,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3693,9 +3705,9 @@
       <xdr:row>98</xdr:row>
       <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="CustomShape 1"/>
+        <xdr:cNvPr id="44" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3707,6 +3719,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3722,11 +3735,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3757,9 +3770,9 @@
       <xdr:row>100</xdr:row>
       <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CustomShape 1"/>
+        <xdr:cNvPr id="45" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3771,6 +3784,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3786,11 +3800,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3821,9 +3835,9 @@
       <xdr:row>102</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="CustomShape 1"/>
+        <xdr:cNvPr id="46" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3835,6 +3849,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3850,11 +3865,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3885,9 +3900,9 @@
       <xdr:row>104</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="CustomShape 1"/>
+        <xdr:cNvPr id="47" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3899,6 +3914,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3914,11 +3930,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3949,9 +3965,9 @@
       <xdr:row>105</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="CustomShape 1"/>
+        <xdr:cNvPr id="48" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3963,6 +3979,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3978,11 +3995,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4013,9 +4030,9 @@
       <xdr:row>106</xdr:row>
       <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="CustomShape 1"/>
+        <xdr:cNvPr id="49" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4027,6 +4044,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -4042,11 +4060,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4077,9 +4095,9 @@
       <xdr:row>109</xdr:row>
       <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="CustomShape 1"/>
+        <xdr:cNvPr id="50" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4091,6 +4109,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -4106,11 +4125,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4141,9 +4160,9 @@
       <xdr:row>111</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="CustomShape 1"/>
+        <xdr:cNvPr id="51" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4155,6 +4174,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -4170,11 +4190,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4205,9 +4225,9 @@
       <xdr:row>112</xdr:row>
       <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CustomShape 1"/>
+        <xdr:cNvPr id="52" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4219,6 +4239,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -4234,11 +4255,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4269,9 +4290,9 @@
       <xdr:row>118</xdr:row>
       <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="CustomShape 1"/>
+        <xdr:cNvPr id="53" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4283,6 +4304,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -4298,11 +4320,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4333,9 +4355,9 @@
       <xdr:row>120</xdr:row>
       <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="CustomShape 1"/>
+        <xdr:cNvPr id="54" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4347,6 +4369,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -4362,11 +4385,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4397,9 +4420,9 @@
       <xdr:row>122</xdr:row>
       <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="CustomShape 1"/>
+        <xdr:cNvPr id="55" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4411,6 +4434,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -4426,11 +4450,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4451,1236 +4475,911 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:AO123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AMK122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C87" activeCellId="0" sqref="C87"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="9" style="1" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="28.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="22.7"/>
+    <col min="1" max="1" width="20.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="13" customWidth="1"/>
+    <col min="4" max="7" width="22.7109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="13" customWidth="1"/>
+    <col min="9" max="14" width="22.7109375" style="13" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" style="13" customWidth="1"/>
+    <col min="16" max="1025" width="22.7109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="15"/>
+    </row>
+    <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
+      <c r="N3" s="11"/>
+      <c r="O3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3" t="s">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="6" t="s">
+      <c r="S3" s="11"/>
+      <c r="T3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="3" t="s">
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="6" t="s">
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3" t="s">
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AD3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="3" t="s">
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="3" t="s">
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="15"/>
+    </row>
+    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8" t="s">
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="15"/>
+    </row>
+    <row r="5" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
+      <c r="L5" s="11"/>
+      <c r="M5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="V5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AB5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AC5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AD5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AE5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AF5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AG5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AH5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AI5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AJ5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AK5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AL5" s="3" t="s">
+      <c r="AL5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AM5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AN5" s="3" t="s">
+      <c r="AN5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AO5" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="AO5" s="15"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H10" s="10" t="s">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="H10" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H11" s="10" t="s">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="H11" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="10" t="s">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="H12" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="10" t="s">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="H13" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="10" t="s">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:41" ht="24" x14ac:dyDescent="0.25">
+      <c r="H16" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+    <row r="24" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+    <row r="31" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
+    <row r="33" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
+    <row r="38" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
+    <row r="41" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
+    <row r="46" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:1" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
+    <row r="48" spans="1:1" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="10" t="s">
+    <row r="49" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B50" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="L50" s="10" t="s">
+      <c r="L50" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="10" t="s">
+    <row r="51" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="C53" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="10" t="s">
+    <row r="54" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="C54" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="10" t="s">
+    <row r="55" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="C60" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="61" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" s="10" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="10" t="s">
+    <row r="61" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:12" s="18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="D62" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="10" t="s">
+    <row r="63" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="C70" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" s="10" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C72" s="10" t="s">
+    <row r="71" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="3:30" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y74" s="10" t="s">
+    <row r="73" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="Y74" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" s="10" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD79" s="10" t="s">
+    <row r="75" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="3:30" s="18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AD79" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="80" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y81" s="11" t="s">
+    <row r="80" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="Y81" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" s="10" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y82" s="10" t="s">
+    <row r="82" spans="3:38" s="18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="Y82" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="83" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y85" s="10" t="s">
+    <row r="83" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="3:38" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="Y85" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="86" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="10" t="s">
+    <row r="86" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="C87" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="88" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AF88" s="10" t="s">
+    <row r="88" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AF88" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AI90" s="10" t="s">
+    <row r="89" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="3:38" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AI90" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="91" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL93" s="10" t="s">
+    <row r="91" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="3:38" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AL93" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="94" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL96" s="10" t="s">
+    <row r="94" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AL96" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="97" s="10" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL97" s="10" t="s">
+    <row r="97" spans="35:40" s="18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AL97" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="98" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL100" s="10" t="s">
+    <row r="98" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="35:40" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AL100" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="101" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AM102" s="10" t="s">
+    <row r="101" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="35:40" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AM102" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="103" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" s="10" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AI108" s="10" t="s">
+    <row r="103" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="35:40" s="18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AI108" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="109" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AI109" s="10" t="s">
+    <row r="109" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AI109" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="110" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AN111" s="10" t="s">
+    <row r="110" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="35:40" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AN111" s="18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="112" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AF115" s="10" t="s">
+    <row r="112" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="32:34" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="32:34" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="32:34" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AF115" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="116" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AF116" s="10" t="s">
+    <row r="116" spans="32:34" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AF116" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="117" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" s="10" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AF118" s="10" t="s">
+    <row r="117" spans="32:34" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="32:34" s="18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AF118" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="119" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" s="10" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AG120" s="10" t="s">
+    <row r="119" spans="32:34" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="32:34" s="18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AG120" s="18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="121" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH122" s="10" t="s">
+    <row r="121" spans="32:34" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="32:34" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AH122" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AJ3"/>
+    <mergeCell ref="AK3:AN4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AJ4"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:AN2"/>
@@ -5697,676 +5396,660 @@
     <mergeCell ref="R3:S4"/>
     <mergeCell ref="T3:V4"/>
     <mergeCell ref="W3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AJ3"/>
-    <mergeCell ref="AK3:AN4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AJ4"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="55.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="57.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.54"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" customWidth="1"/>
+    <col min="5" max="5" width="57.7109375" customWidth="1"/>
+    <col min="6" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="22" t="n">
+      <c r="B5" s="26">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="22" t="n">
+      <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" s="30">
         <v>0</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="33" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="33" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="33" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="33" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="22" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="28" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="33" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="22" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="33" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="22" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="33" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="38" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="39" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="42" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28" t="s">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="33" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="39" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="42" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="s">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E37" s="37" t="s">
+      <c r="E37" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -6374,53 +6057,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
+    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
+    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/RMSXRouteFillTest/RMSXRouteFillTest_SequenceDiagram.xlsx
+++ b/RMSXRouteFillTest/RMSXRouteFillTest_SequenceDiagram.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SequenceDiagram" sheetId="1" r:id="rId1"/>
-    <sheet name="EMSX Patterns" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="SequenceDiagram" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="EMSX Patterns" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,518 +23,542 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="167">
-  <si>
-    <t>RouteFillTest</t>
-  </si>
-  <si>
-    <t>EasyMSX</t>
-  </si>
-  <si>
-    <t>RuleMSX</t>
-  </si>
-  <si>
-    <t>Build Rules</t>
-  </si>
-  <si>
-    <t>ProcessNotification</t>
-  </si>
-  <si>
-    <t>ParseRoute</t>
-  </si>
-  <si>
-    <t>EMSXFieldDataPointSource 
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="174">
+  <si>
+    <t xml:space="preserve">RouteFillTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EasyMSX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RuleMSX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build Rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessNotification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ParseRoute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMSXFieldDataPointSource 
 (DataPointSource)</t>
   </si>
   <si>
-    <t>RouteFillOccurred</t>
-  </si>
-  <si>
-    <t>ShowRouteFill
+    <t xml:space="preserve">RouteFillOccurred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShowRouteFill
 (ActionExecutor)</t>
   </si>
   <si>
-    <t>Route
+    <t xml:space="preserve">Route
 Notification</t>
   </si>
   <si>
-    <t>Field 
+    <t xml:space="preserve">Field 
 Notification</t>
   </si>
   <si>
-    <t>RuleEvaluator</t>
-  </si>
-  <si>
-    <t>RuleCondition</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>RuleSet</t>
-  </si>
-  <si>
-    <t>Rule</t>
-  </si>
-  <si>
-    <t>DataSet</t>
-  </si>
-  <si>
-    <t>DataPoint</t>
-  </si>
-  <si>
-    <t>ExecutionAgent</t>
-  </si>
-  <si>
-    <t>WorkingRule</t>
-  </si>
-  <si>
-    <t>WorkingSetAgent</t>
-  </si>
-  <si>
-    <t>Constructor</t>
-  </si>
-  <si>
-    <t>GetValue</t>
-  </si>
-  <si>
-    <t>AssociateWorkingRule</t>
-  </si>
-  <si>
-    <t>Evaluate</t>
-  </si>
-  <si>
-    <t>Execute</t>
-  </si>
-  <si>
-    <t>AddHandler</t>
-  </si>
-  <si>
-    <t>Notify</t>
-  </si>
-  <si>
-    <t>AddDependantDataPointName</t>
-  </si>
-  <si>
-    <t>GetEvaluator</t>
-  </si>
-  <si>
-    <t>GetExecutor</t>
-  </si>
-  <si>
-    <t>CreateAction</t>
-  </si>
-  <si>
-    <t>CreateRuleSet</t>
-  </si>
-  <si>
-    <t>CreateDataSet</t>
-  </si>
-  <si>
-    <t>AddRule</t>
-  </si>
-  <si>
-    <t>AddDataPoint</t>
-  </si>
-  <si>
-    <t>AddDataSet</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Process WorkingRule</t>
-  </si>
-  <si>
-    <t>Process Evaluator</t>
-  </si>
-  <si>
-    <t>IngestDataSet</t>
-  </si>
-  <si>
-    <t>EnqueueWorkingRule</t>
-  </si>
-  <si>
-    <t>Dereference</t>
-  </si>
-  <si>
-    <t>Check Dependencies</t>
-  </si>
-  <si>
-    <t>Create RuleCondition</t>
-  </si>
-  <si>
-    <t>(condRouteFillOccurred)</t>
-  </si>
-  <si>
-    <t>Add dependencies</t>
-  </si>
-  <si>
-    <t>(RouteStatus)</t>
-  </si>
-  <si>
-    <t>(RouteFilled)</t>
-  </si>
-  <si>
-    <t>(RouteLastShares)</t>
-  </si>
-  <si>
-    <t>Done adding dependencies</t>
-  </si>
-  <si>
-    <t>Done creating RuleCondition</t>
-  </si>
-  <si>
-    <t>Create Action</t>
-  </si>
-  <si>
-    <t>(actShowRouteFill)</t>
-  </si>
-  <si>
-    <t>Done creating Action</t>
-  </si>
-  <si>
-    <t>Create RuleSet</t>
-  </si>
-  <si>
-    <t>Done creating RuleSet</t>
-  </si>
-  <si>
-    <t>Create Rule</t>
-  </si>
-  <si>
-    <t>(ruleRouteFilled)</t>
-  </si>
-  <si>
-    <t>Done creating Rule</t>
-  </si>
-  <si>
-    <t>Assign RuleCondition condRouteFillOccurred  to Rule</t>
-  </si>
-  <si>
-    <t>Assign Action actShowRouteFill to Rule</t>
-  </si>
-  <si>
-    <t>Received notification</t>
-  </si>
-  <si>
-    <t>External Event</t>
-  </si>
-  <si>
-    <t>Create DataSet</t>
-  </si>
-  <si>
-    <t>(newDataSet)</t>
-  </si>
-  <si>
-    <t>Create DataPoints</t>
-  </si>
-  <si>
-    <t>Add Field Notification Handler</t>
-  </si>
-  <si>
-    <t>Done creating DataPoints</t>
-  </si>
-  <si>
-    <t>Execute RuleSet with DataSet</t>
-  </si>
-  <si>
-    <t>On first execute</t>
-  </si>
-  <si>
-    <t>Start the WorkingAgent thread</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>On subsequent executes for same RuleSet</t>
-  </si>
-  <si>
-    <t>WorkingAgent started and DataSet submitted to DataSetQueue</t>
-  </si>
-  <si>
-    <t>Execution started</t>
-  </si>
-  <si>
-    <t>If DataSetQueue length &gt; 0</t>
-  </si>
-  <si>
-    <t>For Each Rule in the RuleSet, create a WorkingRule</t>
-  </si>
-  <si>
-    <t>For each Action, get the Executor and add to WorkingRule</t>
-  </si>
-  <si>
-    <t>For each RuleCondition</t>
-  </si>
-  <si>
-    <t>Get Evaluator and add to Working Rule</t>
-  </si>
-  <si>
-    <t>For Each DependentDataPointName in Evaluator</t>
-  </si>
-  <si>
-    <t>Associate the WorkingRule with the DataPoint in the current DataSet</t>
-  </si>
-  <si>
-    <t>Add new WorkingRule to WorkingSet</t>
-  </si>
-  <si>
-    <t>Queue the WorkingRule</t>
-  </si>
-  <si>
-    <t>If WorkingRule not already in the OpenSetQueue, add it</t>
-  </si>
-  <si>
-    <t>If OpenSetQueue length &gt;0</t>
-  </si>
-  <si>
-    <t>Move OpenSetQueue to OpenSet, reset OpenSetQueue</t>
-  </si>
-  <si>
-    <t>For Each WorkingRule in OpenSet</t>
-  </si>
-  <si>
-    <t>For Each Evaluator in Working Rule</t>
-  </si>
-  <si>
-    <t>Call Evaluate</t>
-  </si>
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Previous Value</t>
-  </si>
-  <si>
-    <t>New Value</t>
-  </si>
-  <si>
-    <t>Meaning</t>
-  </si>
-  <si>
-    <t>Acronym</t>
-  </si>
-  <si>
-    <t>EMSX_STATUS</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>SENT</t>
-  </si>
-  <si>
-    <t>New route created</t>
-  </si>
-  <si>
-    <t>ROUTE_NEW</t>
-  </si>
-  <si>
-    <t>Working amount set on route (can be ignored)</t>
-  </si>
-  <si>
-    <t>ROUTE_SET_WORKING_AMOUNT</t>
-  </si>
-  <si>
-    <t>EMSX_WORKING</t>
-  </si>
-  <si>
-    <t>&gt;0</t>
-  </si>
-  <si>
-    <t>WORKING</t>
-  </si>
-  <si>
-    <t>ACK received from broker</t>
-  </si>
-  <si>
-    <t>ROUTE_NEW_BROKER_ACK</t>
-  </si>
-  <si>
-    <t>PARTFILL</t>
-  </si>
-  <si>
-    <t>First fill of multiple fills (&lt; 100%)</t>
-  </si>
-  <si>
-    <t>ROUTE_FILL_FIRST_MULTI</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>&lt;n and &gt;0</t>
-  </si>
-  <si>
-    <t>Middle fill of multiple fills (&lt; 100%)</t>
-  </si>
-  <si>
-    <t>ROUTE_FILL_MULTI</t>
-  </si>
-  <si>
-    <t>FILLED</t>
-  </si>
-  <si>
-    <t>Final fill of multiple fills (100%)</t>
-  </si>
-  <si>
-    <t>ROUTE_FILL_FINAL_MULTI</t>
-  </si>
-  <si>
-    <t>Full single fill</t>
-  </si>
-  <si>
-    <t>ROUTE_FILL_FIRST_FULL</t>
-  </si>
-  <si>
-    <t>Historic 100% fill on INIT_PAINT</t>
-  </si>
-  <si>
-    <t>ROUTE_INIT_PAINT_FILLED</t>
-  </si>
-  <si>
-    <t>Working route on INIT_PAINT</t>
-  </si>
-  <si>
-    <t>ROUTE_INIT_PAINT_WORKING</t>
-  </si>
-  <si>
-    <t>Part filled route on INIT_PAINT</t>
-  </si>
-  <si>
-    <t>ROUTE_INIT_PAINT_PARTFILL</t>
-  </si>
-  <si>
-    <t>CXLREQ</t>
-  </si>
-  <si>
-    <t>Cancel requested on route in INIT_PAINT</t>
-  </si>
-  <si>
-    <t>ROUTE_INIT_PAINT_CANCEL_REQUESTED</t>
-  </si>
-  <si>
-    <t>Cancel route request sent</t>
-  </si>
-  <si>
-    <t>ROUTE_CANCEL_REQUESTED_ON_WORKING</t>
-  </si>
-  <si>
-    <t>Broker rejected cancel request</t>
-  </si>
-  <si>
-    <t>ROUTE_CANCEL_REJECTED_ON_WORKING_FROM_REQUEST</t>
-  </si>
-  <si>
-    <t>CXLPEN</t>
-  </si>
-  <si>
-    <t>Broker sent ACK for cancel request</t>
-  </si>
-  <si>
-    <t>ROUTE_CANCEL_BROKER_ACK</t>
-  </si>
-  <si>
-    <t>ROUTE_CANCEL_REJECTED_ON_WORKING_FROM_PENDING</t>
-  </si>
-  <si>
-    <t>CANCEL</t>
-  </si>
-  <si>
-    <t>Broker cancelled route from request</t>
-  </si>
-  <si>
-    <t>ROUTE_CANCEL_FROM_REQUESTED</t>
-  </si>
-  <si>
-    <t>Broker cancelled route from pending status</t>
-  </si>
-  <si>
-    <t>ROUTE_CANCEL_FROM_PENDING</t>
-  </si>
-  <si>
-    <t>Cancel requested on part filled route</t>
-  </si>
-  <si>
-    <t>ROUTE_CANCEL_REQUESTED_ON_PARTFILL</t>
-  </si>
-  <si>
-    <t>Broker rejected cancel request on part filled route</t>
-  </si>
-  <si>
-    <t>ROUTE_CANCEL_REJECTED_ON_PARTFILL_FROM_REQUEST</t>
-  </si>
-  <si>
-    <t>ROUTE_CANCEL_REJECTED_ON_PARTFILL_FROM_PENDING</t>
-  </si>
-  <si>
-    <t>CXLRPRQ</t>
-  </si>
-  <si>
-    <t>Modify (cancel/replace) request sent to broker on working route</t>
-  </si>
-  <si>
-    <t>ROUTE_MODIFY_REQUESTED_ON_WORKING</t>
-  </si>
-  <si>
-    <t>REPPEN</t>
-  </si>
-  <si>
-    <t>Broker sent ACK for modify request</t>
-  </si>
-  <si>
-    <t>ROUTE_MODIFY_BROKER_ACK</t>
-  </si>
-  <si>
-    <t>Broker rejected modify request on working route</t>
-  </si>
-  <si>
-    <t>ROUTE_MODIFY_REJECTED_ON_WORKING</t>
-  </si>
-  <si>
-    <t>EMSX_BROKER_STATUS</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>CXLRPRJ</t>
-  </si>
-  <si>
-    <t>Broker accepted and applied the modify request on working route</t>
-  </si>
-  <si>
-    <t>ROUTE_MODIFY_APPLIED_ON_WORKING</t>
-  </si>
-  <si>
-    <t>MODIFIED</t>
-  </si>
-  <si>
-    <t>Modify (cancel/replace) request sent to broker on part filled route</t>
-  </si>
-  <si>
-    <t>ROUTE_MODIFY_REQUESTED_ON_PARTFILL</t>
-  </si>
-  <si>
-    <t>Broker rejected modify request on part filled route</t>
-  </si>
-  <si>
-    <t>ROUTE_MODIFY_REJECTED_ON_PARTFILL</t>
-  </si>
-  <si>
-    <t>Broker accepted and applied the modify request on part filled route</t>
-  </si>
-  <si>
-    <t>ROUTE_MODIFY_APPLIED_ON_PARTFILL</t>
+    <t xml:space="preserve">RuleEvaluator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RuleCondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RuleSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExecutionAgent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WorkingRule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WorkingSetAgent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GetValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssociateWorkingRule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Execute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddHandler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddDependantDataPointName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GetEvaluator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GetExecutor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateRuleSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateDataSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddRule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddDataPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddDataSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process WorkingRule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Evaluator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IngestDataSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnqueueWorkingRule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dereference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create RuleCondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(condRouteFillOccurred)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(RouteStatus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(RouteFilled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(RouteLastShares)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done adding dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done creating RuleCondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(actShowRouteFill)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done creating Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create RuleSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done creating RuleSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ruleRouteFilled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done creating Rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assign RuleCondition condRouteFillOccurred  to Rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assign Action actShowRouteFill to Rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create DataSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(newDataSet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create DataPoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Field Notification Handler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done creating DataPoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Execute RuleSet with DataSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On first execute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start the WorkingAgent thread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On subsequent executes for same RuleSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WorkingAgent started and DataSet submitted to DataSetQueue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Execution started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If DataSetQueue length &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Each Rule in the RuleSet, create a WorkingRule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For each Action, get the Executor and add to WorkingRule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For each RuleCondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Evaluator and add to Working Rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Each DependentDataPointName in Evaluator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associate the WorkingRule with the DataPoint in the current DataSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add new WorkingRule to WorkingSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queue the WorkingRule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If WorkingRule not already in the OpenSetQueue, add it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If OpenSetQueue length &gt;0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move OpenSetQueue to OpenSet, reset OpenSetQueue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Each WorkingRule in OpenSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Each Evaluator in Working Rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call Evaluate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previous Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acronym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMSX_STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New route created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_NEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working amount set on route (can be ignored)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_SET_WORKING_AMOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMSX_WORKING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORKING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACK received from broker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_NEW_BROKER_ACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARTFILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First fill of multiple fills (&lt; 100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_FILL_FIRST_MULTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;n and &gt;0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle fill of multiple fills (&lt; 100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_FILL_MULTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILLED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final fill of multiple fills (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_FILL_FINAL_MULTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full single fill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_FILL_FIRST_FULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historic 100% fill on INIT_PAINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_INIT_PAINT_FILLED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working route on INIT_PAINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_INIT_PAINT_WORKING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part filled route on INIT_PAINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_INIT_PAINT_PARTFILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXLREQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel requested on route in INIT_PAINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_INIT_PAINT_CANCEL_REQUESTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel route request sent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_CANCEL_REQUESTED_ON_WORKING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker rejected cancel request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_CANCEL_REJECTED_ON_WORKING_FROM_REQUEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXLPEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker sent ACK for cancel request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_CANCEL_BROKER_ACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_CANCEL_REJECTED_ON_WORKING_FROM_PENDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker cancelled route from request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_CANCEL_FROM_REQUESTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker cancelled route from pending status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_CANCEL_FROM_PENDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel requested on part filled route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_CANCEL_REQUESTED_ON_PARTFILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker rejected cancel request on part filled route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_CANCEL_REJECTED_ON_PARTFILL_FROM_REQUEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_CANCEL_REJECTED_ON_PARTFILL_FROM_PENDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXLRPRQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify (cancel/replace) request sent to broker on working route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_MODIFY_REQUESTED_ON_WORKING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPPEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker sent ACK for modify request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_MODIFY_BROKER_ACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker rejected modify request on working route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_MODIFY_REJECTED_ON_WORKING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMSX_BROKER_STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXLRPRJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker accepted and applied the modify request on working route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_MODIFY_APPLIED_ON_WORKING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODIFIED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify (cancel/replace) request sent to broker on part filled route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_MODIFY_REQUESTED_ON_PARTFILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker rejected modify request on part filled route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_MODIFY_REJECTED_ON_PARTFILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker accepted and applied the modify request on part filled route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_MODIFY_APPLIED_ON_PARTFILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REJECTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker rejected the order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_REJECTED_BY_BROKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial paint shows route rejected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_INIT_PAINT_REJECTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial paint shows route cancelled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE_INIT_PAINT_CANCEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -542,11 +567,32 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF558ED5"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -589,292 +635,316 @@
     </fill>
   </fills>
   <borders count="14">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
+      <right style="hair"/>
+      <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
       <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
+      <right style="hair"/>
       <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
+      <right style="hair"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+  <cellXfs count="44">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -933,26 +1003,13 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -962,25 +1019,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>549000</xdr:colOff>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="0" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="698400" y="1886040"/>
-          <a:ext cx="10981800" cy="19800"/>
+          <a:ext cx="10984680" cy="19440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -996,11 +1052,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1027,25 +1083,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>824400</xdr:colOff>
+      <xdr:colOff>824040</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="1" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11713680" y="2838600"/>
-          <a:ext cx="10971000" cy="10800"/>
+          <a:off x="11716920" y="2838600"/>
+          <a:ext cx="10973160" cy="10440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1061,11 +1116,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1086,31 +1141,30 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>527400</xdr:colOff>
+      <xdr:colOff>526680</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>105840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>769320</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11658600" y="3039480"/>
-          <a:ext cx="10971000" cy="360"/>
+          <a:off x="11661120" y="3039480"/>
+          <a:ext cx="10973160" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1126,11 +1180,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1157,25 +1211,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>526680</xdr:colOff>
+      <xdr:colOff>526320</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>98280</xdr:rowOff>
+      <xdr:rowOff>97920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="659160" y="3524400"/>
-          <a:ext cx="10998720" cy="2880"/>
+          <a:ext cx="11001600" cy="2520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1191,11 +1244,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1222,25 +1275,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>739440</xdr:colOff>
+      <xdr:colOff>739080</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="702720" y="4878720"/>
-          <a:ext cx="13889880" cy="360"/>
+          <a:ext cx="13892040" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1256,11 +1308,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1287,25 +1339,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>643320</xdr:colOff>
+      <xdr:colOff>642960</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="634320" y="5027040"/>
-          <a:ext cx="13862160" cy="360"/>
+          <a:ext cx="13864320" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1321,11 +1372,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1346,31 +1397,30 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>622080</xdr:colOff>
+      <xdr:colOff>621360</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>74520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>716040</xdr:colOff>
+      <xdr:colOff>714960</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="622080" y="5636880"/>
-          <a:ext cx="30365640" cy="360"/>
+          <a:off x="621360" y="5636880"/>
+          <a:ext cx="30373560" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1386,11 +1436,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1417,25 +1467,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>718200</xdr:colOff>
+      <xdr:colOff>717840</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="690120" y="6237720"/>
-          <a:ext cx="31901040" cy="7200"/>
+          <a:ext cx="31909680" cy="6840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1451,11 +1500,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1476,31 +1525,30 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>632880</xdr:colOff>
+      <xdr:colOff>632160</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>88920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>657000</xdr:colOff>
+      <xdr:colOff>655920</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="632880" y="6718320"/>
-          <a:ext cx="31897080" cy="5040"/>
+          <a:off x="632160" y="6718320"/>
+          <a:ext cx="31905720" cy="4680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1516,11 +1564,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1543,29 +1591,28 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>624960</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>686880</xdr:colOff>
+      <xdr:colOff>686520</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1"/>
+        <xdr:cNvPr id="9" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="29295000" y="6395040"/>
-          <a:ext cx="3264840" cy="360"/>
+          <a:off x="29302560" y="6394320"/>
+          <a:ext cx="3265920" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1581,11 +1628,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1606,31 +1653,30 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>634320</xdr:colOff>
+      <xdr:colOff>633600</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>654120</xdr:colOff>
+      <xdr:colOff>653040</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1"/>
+        <xdr:cNvPr id="10" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="29304360" y="6548040"/>
-          <a:ext cx="3222720" cy="360"/>
+          <a:off x="29311200" y="6547320"/>
+          <a:ext cx="3223800" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1646,11 +1692,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1677,25 +1723,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>750240</xdr:colOff>
+      <xdr:colOff>749880</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvPr id="11" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="694440" y="7461360"/>
-          <a:ext cx="36733320" cy="360"/>
+          <a:ext cx="36743760" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1711,11 +1756,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1738,29 +1783,28 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>650160</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>712080</xdr:colOff>
+      <xdr:colOff>711720</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvPr id="12" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="34124760" y="7629120"/>
-          <a:ext cx="3264840" cy="360"/>
+          <a:off x="34134120" y="7628400"/>
+          <a:ext cx="3265920" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1776,11 +1820,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1801,31 +1845,30 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>659520</xdr:colOff>
+      <xdr:colOff>658800</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>679320</xdr:colOff>
+      <xdr:colOff>678240</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
+        <xdr:cNvPr id="13" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="34134120" y="7771320"/>
-          <a:ext cx="3222720" cy="360"/>
+          <a:off x="34142760" y="7770600"/>
+          <a:ext cx="3223800" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1841,11 +1884,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1866,31 +1909,30 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>633600</xdr:colOff>
+      <xdr:colOff>632880</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>78480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>710640</xdr:colOff>
+      <xdr:colOff>709560</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1"/>
+        <xdr:cNvPr id="14" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="633600" y="7926840"/>
-          <a:ext cx="36754560" cy="360"/>
+          <a:off x="632880" y="7926840"/>
+          <a:ext cx="36765000" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1906,11 +1948,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1937,25 +1979,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>717120</xdr:colOff>
+      <xdr:colOff>716760</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
+        <xdr:cNvPr id="15" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="2158200" y="9609480"/>
-          <a:ext cx="15615000" cy="360"/>
+          <a:ext cx="15618240" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1971,11 +2012,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1998,29 +2039,28 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>577080</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>754920</xdr:colOff>
+      <xdr:colOff>754560</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CustomShape 1"/>
+        <xdr:cNvPr id="16" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="577080" y="9741600"/>
-          <a:ext cx="1638720" cy="360"/>
+          <a:off x="577080" y="9740880"/>
+          <a:ext cx="1638360" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2036,11 +2076,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2063,29 +2103,28 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>642240</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>706320</xdr:colOff>
+      <xdr:colOff>705960</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="26109360" y="10355400"/>
-          <a:ext cx="8071560" cy="360"/>
+          <a:off x="26115840" y="10354680"/>
+          <a:ext cx="8074080" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2101,11 +2140,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2132,25 +2171,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>706320</xdr:colOff>
+      <xdr:colOff>705960</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CustomShape 1"/>
+        <xdr:cNvPr id="18" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="34119360" y="10513440"/>
-          <a:ext cx="8068680" cy="9000"/>
+          <a:off x="34128720" y="10513440"/>
+          <a:ext cx="8071920" cy="8640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2166,11 +2204,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2197,25 +2235,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>710640</xdr:colOff>
+      <xdr:colOff>710280</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="CustomShape 1"/>
+        <xdr:cNvPr id="19" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3769920" y="10670400"/>
-          <a:ext cx="30415320" cy="5040"/>
+          <a:off x="3770640" y="10670400"/>
+          <a:ext cx="30423600" cy="4680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2231,11 +2268,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2258,29 +2295,28 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>650520</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>748080</xdr:colOff>
+      <xdr:colOff>747720</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="CustomShape 1"/>
+        <xdr:cNvPr id="20" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2111400" y="11117520"/>
-          <a:ext cx="1699200" cy="360"/>
+          <a:off x="2111400" y="11116800"/>
+          <a:ext cx="1699560" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2296,11 +2332,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2321,31 +2357,30 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>655200</xdr:colOff>
+      <xdr:colOff>654480</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>74160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>727920</xdr:colOff>
+      <xdr:colOff>726840</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="CustomShape 1"/>
+        <xdr:cNvPr id="21" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="5380560" y="11732760"/>
-          <a:ext cx="14004720" cy="360"/>
+          <a:ext cx="14007960" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2361,11 +2396,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2392,25 +2427,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>721080</xdr:colOff>
+      <xdr:colOff>720720</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="CustomShape 1"/>
+        <xdr:cNvPr id="22" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3759120" y="11889360"/>
-          <a:ext cx="1687320" cy="360"/>
+          <a:off x="3759840" y="11889360"/>
+          <a:ext cx="1686960" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2426,11 +2460,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2453,29 +2487,28 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>651960</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>689040</xdr:colOff>
+      <xdr:colOff>688680</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="CustomShape 1"/>
+        <xdr:cNvPr id="23" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="42133680" y="12188520"/>
+          <a:off x="42146640" y="12187800"/>
           <a:ext cx="1638720" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2491,11 +2524,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2522,25 +2555,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>660240</xdr:colOff>
+      <xdr:colOff>659880</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="CustomShape 1"/>
+        <xdr:cNvPr id="24" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="43706520" y="12337920"/>
-          <a:ext cx="1638360" cy="360"/>
+          <a:off x="43719840" y="12337920"/>
+          <a:ext cx="1638720" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2556,11 +2588,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2581,31 +2613,30 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:colOff>685080</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>74520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>684360</xdr:colOff>
+      <xdr:colOff>683280</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="CustomShape 1"/>
+        <xdr:cNvPr id="25" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="3748320" y="12494880"/>
-          <a:ext cx="40019400" cy="360"/>
+          <a:ext cx="40031640" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2621,11 +2652,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2652,48 +2683,41 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>284400</xdr:colOff>
+      <xdr:colOff>284040</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="CustomShape 1"/>
+        <xdr:cNvPr id="26" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3157920" y="11102040"/>
-          <a:ext cx="189000" cy="1380600"/>
+          <a:off x="3158640" y="11102040"/>
+          <a:ext cx="188640" cy="1380240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="16200000" vert="vert270" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr"/>
-        <a:lstStyle/>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr" vert="vert270" rot="16200000"/>
         <a:p>
           <a:pPr algn="ctr">
             <a:lnSpc>
@@ -2701,15 +2725,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="900" b="0" strike="noStrike" spc="-1">
+            <a:rPr b="0" lang="en-GB" sz="900" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="558ED5"/>
+                <a:srgbClr val="558ed5"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Repeat for each DataPoint</a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" sz="900" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr b="0" lang="en-GB" sz="900" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2722,29 +2746,28 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>767160</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>763560</xdr:colOff>
+      <xdr:colOff>763200</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="CustomShape 1"/>
+        <xdr:cNvPr id="27" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="31038840" y="13426920"/>
-          <a:ext cx="8003520" cy="360"/>
+          <a:off x="31047120" y="13426200"/>
+          <a:ext cx="8006400" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2760,11 +2783,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2787,29 +2810,28 @@
       <xdr:col>27</xdr:col>
       <xdr:colOff>595440</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>693720</xdr:colOff>
+      <xdr:colOff>693360</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="CustomShape 1"/>
+        <xdr:cNvPr id="28" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="43678800" y="14334840"/>
-          <a:ext cx="3301200" cy="360"/>
+          <a:off x="43692120" y="14334120"/>
+          <a:ext cx="3301920" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2825,11 +2847,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2852,29 +2874,28 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>733680</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>746640</xdr:colOff>
+      <xdr:colOff>746280</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="CustomShape 1"/>
+        <xdr:cNvPr id="29" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="29403720" y="14944320"/>
-          <a:ext cx="9621720" cy="360"/>
+          <a:off x="29411280" y="14943600"/>
+          <a:ext cx="9625320" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2890,11 +2911,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2915,31 +2936,30 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>655560</xdr:colOff>
+      <xdr:colOff>654840</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>69840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>691920</xdr:colOff>
+      <xdr:colOff>690840</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="CustomShape 1"/>
+        <xdr:cNvPr id="30" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="46941840" y="13728600"/>
-          <a:ext cx="1637640" cy="360"/>
+          <a:off x="46955520" y="13728600"/>
+          <a:ext cx="1638360" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2955,11 +2975,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2986,25 +3006,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>695160</xdr:colOff>
+      <xdr:colOff>694800</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="CustomShape 1"/>
+        <xdr:cNvPr id="31" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="38975760" y="15104520"/>
-          <a:ext cx="9606960" cy="360"/>
+          <a:off x="38987280" y="15104520"/>
+          <a:ext cx="9610560" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3020,11 +3039,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3045,31 +3064,30 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>697320</xdr:colOff>
+      <xdr:colOff>696600</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>78840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>721440</xdr:colOff>
+      <xdr:colOff>720360</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="CustomShape 1"/>
+        <xdr:cNvPr id="32" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="38976120" y="13889880"/>
-          <a:ext cx="8031600" cy="360"/>
+          <a:off x="38986920" y="13889880"/>
+          <a:ext cx="8034120" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3085,11 +3103,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3110,31 +3128,30 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>750240</xdr:colOff>
+      <xdr:colOff>749520</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>70200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>744840</xdr:colOff>
+      <xdr:colOff>743760</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="CustomShape 1"/>
+        <xdr:cNvPr id="33" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="3812760" y="15710040"/>
-          <a:ext cx="35210880" cy="360"/>
+          <a:ext cx="35221320" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3150,11 +3167,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3177,29 +3194,28 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>641160</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>677520</xdr:colOff>
+      <xdr:colOff>677160</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="CustomShape 1"/>
+        <xdr:cNvPr id="34" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="45325800" y="16182360"/>
-          <a:ext cx="4840920" cy="360"/>
+          <a:off x="45339840" y="16171560"/>
+          <a:ext cx="4842360" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3215,11 +3231,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3242,29 +3258,28 @@
       <xdr:col>32</xdr:col>
       <xdr:colOff>757080</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>772560</xdr:colOff>
+      <xdr:colOff>772200</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="CustomShape 1"/>
+        <xdr:cNvPr id="35" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="51847560" y="16801200"/>
-          <a:ext cx="3218760" cy="360"/>
+          <a:off x="51864120" y="16790040"/>
+          <a:ext cx="3219480" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3280,11 +3295,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3307,29 +3322,28 @@
       <xdr:col>35</xdr:col>
       <xdr:colOff>688680</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>725040</xdr:colOff>
+      <xdr:colOff>724680</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="CustomShape 1"/>
+        <xdr:cNvPr id="36" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="56583720" y="16953480"/>
-          <a:ext cx="1638000" cy="360"/>
+          <a:off x="56602080" y="16942680"/>
+          <a:ext cx="1638360" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3345,11 +3359,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3370,31 +3384,30 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>732600</xdr:colOff>
+      <xdr:colOff>731880</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>79920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>693720</xdr:colOff>
+      <xdr:colOff>692640</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="CustomShape 1"/>
+        <xdr:cNvPr id="37" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="29402640" y="17558640"/>
-          <a:ext cx="30389040" cy="360"/>
+          <a:off x="29409480" y="17548560"/>
+          <a:ext cx="30400920" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3410,11 +3423,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3435,31 +3448,30 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>678960</xdr:colOff>
+      <xdr:colOff>678240</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>698760</xdr:colOff>
+      <xdr:colOff>697680</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="CustomShape 1"/>
+        <xdr:cNvPr id="38" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="27747720" y="5332320"/>
-          <a:ext cx="3222720" cy="360"/>
+          <a:off x="27753840" y="5331600"/>
+          <a:ext cx="3223800" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3475,11 +3487,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3502,29 +3514,28 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>721800</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>783720</xdr:colOff>
+      <xdr:colOff>783360</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="CustomShape 1"/>
+        <xdr:cNvPr id="39" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="27790560" y="5488200"/>
-          <a:ext cx="3264840" cy="360"/>
+          <a:off x="27797400" y="5487480"/>
+          <a:ext cx="3265920" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3540,11 +3551,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3571,25 +3582,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>760680</xdr:colOff>
+      <xdr:colOff>760320</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="CustomShape 1"/>
+        <xdr:cNvPr id="40" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29470680" y="17710920"/>
-          <a:ext cx="30387960" cy="360"/>
+          <a:off x="29478240" y="17700480"/>
+          <a:ext cx="30399840" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3605,11 +3615,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3630,31 +3640,30 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>664560</xdr:colOff>
+      <xdr:colOff>663840</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>88920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>683280</xdr:colOff>
+      <xdr:colOff>682200</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CustomShape 1"/>
+        <xdr:cNvPr id="41" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="26131680" y="18329760"/>
-          <a:ext cx="33649560" cy="360"/>
+          <a:off x="26137440" y="18319680"/>
+          <a:ext cx="33662520" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3670,11 +3679,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3701,25 +3710,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>750960</xdr:colOff>
+      <xdr:colOff>750600</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="CustomShape 1"/>
+        <xdr:cNvPr id="42" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26210160" y="18482400"/>
-          <a:ext cx="33638760" cy="360"/>
+          <a:off x="26216640" y="18472320"/>
+          <a:ext cx="33651720" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3735,11 +3743,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3762,29 +3770,28 @@
       <xdr:col>36</xdr:col>
       <xdr:colOff>678240</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>715320</xdr:colOff>
+      <xdr:colOff>714960</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="CustomShape 1"/>
+        <xdr:cNvPr id="43" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="58174920" y="19087200"/>
-          <a:ext cx="1638360" cy="360"/>
+          <a:off x="58194000" y="19076040"/>
+          <a:ext cx="1638720" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3800,11 +3807,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3831,25 +3838,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>685080</xdr:colOff>
+      <xdr:colOff>684720</xdr:colOff>
       <xdr:row>102</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="CustomShape 1"/>
+        <xdr:cNvPr id="44" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10243800" y="19701360"/>
-          <a:ext cx="51140880" cy="360"/>
+          <a:off x="10246320" y="19691280"/>
+          <a:ext cx="51158160" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3865,11 +3871,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3896,25 +3902,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>713160</xdr:colOff>
+      <xdr:colOff>712800</xdr:colOff>
       <xdr:row>104</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="CustomShape 1"/>
+        <xdr:cNvPr id="45" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="59774040" y="20006280"/>
+          <a:off x="59793840" y="19995840"/>
           <a:ext cx="1638720" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3930,11 +3935,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3955,31 +3960,30 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>742680</xdr:colOff>
+      <xdr:colOff>741960</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>88920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>779400</xdr:colOff>
+      <xdr:colOff>778320</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="CustomShape 1"/>
+        <xdr:cNvPr id="46" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="58239360" y="20158560"/>
-          <a:ext cx="1638000" cy="360"/>
+          <a:off x="58257720" y="20148480"/>
+          <a:ext cx="1638360" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3995,11 +3999,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4020,31 +4024,30 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>541080</xdr:colOff>
+      <xdr:colOff>540360</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>63000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>673920</xdr:colOff>
+      <xdr:colOff>672840</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="CustomShape 1"/>
+        <xdr:cNvPr id="47" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="51631560" y="20284920"/>
-          <a:ext cx="3336120" cy="11160"/>
+          <a:off x="51647400" y="20274840"/>
+          <a:ext cx="3336840" cy="10800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -4060,11 +4063,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4087,29 +4090,28 @@
       <xdr:col>29</xdr:col>
       <xdr:colOff>681120</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>744120</xdr:colOff>
+      <xdr:colOff>743760</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CustomShape 1"/>
+        <xdr:cNvPr id="48" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="46967400" y="20916000"/>
-          <a:ext cx="8070480" cy="360"/>
+          <a:off x="46981800" y="20904840"/>
+          <a:ext cx="8073360" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -4125,11 +4127,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4156,25 +4158,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>732240</xdr:colOff>
+      <xdr:colOff>731880</xdr:colOff>
       <xdr:row>111</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="CustomShape 1"/>
+        <xdr:cNvPr id="49" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="54978480" y="21530160"/>
-          <a:ext cx="8054640" cy="360"/>
+          <a:off x="54996120" y="21520080"/>
+          <a:ext cx="8057520" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -4190,11 +4191,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4215,31 +4216,30 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>723600</xdr:colOff>
+      <xdr:colOff>722880</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>759960</xdr:colOff>
+      <xdr:colOff>758880</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="CustomShape 1"/>
+        <xdr:cNvPr id="50" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="50212800" y="21682800"/>
-          <a:ext cx="4840920" cy="360"/>
+          <a:off x="50227920" y="21672720"/>
+          <a:ext cx="4842360" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -4255,11 +4255,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4282,29 +4282,28 @@
       <xdr:col>30</xdr:col>
       <xdr:colOff>764640</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>801360</xdr:colOff>
+      <xdr:colOff>801000</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="CustomShape 1"/>
+        <xdr:cNvPr id="51" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="48652200" y="23049720"/>
+          <a:off x="48667680" y="23038920"/>
           <a:ext cx="1638360" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -4320,11 +4319,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4347,29 +4346,28 @@
       <xdr:col>31</xdr:col>
       <xdr:colOff>707760</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>744480</xdr:colOff>
+      <xdr:colOff>744120</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="CustomShape 1"/>
+        <xdr:cNvPr id="52" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="50196960" y="23506920"/>
-          <a:ext cx="1638000" cy="360"/>
+          <a:off x="50212800" y="23496120"/>
+          <a:ext cx="1638360" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -4385,11 +4383,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4416,25 +4414,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>703080</xdr:colOff>
+      <xdr:colOff>702720</xdr:colOff>
       <xdr:row>122</xdr:row>
       <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="CustomShape 1"/>
+        <xdr:cNvPr id="53" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="12965040" y="23806800"/>
-          <a:ext cx="40430160" cy="360"/>
+          <a:off x="12966840" y="23796720"/>
+          <a:ext cx="40445280" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -4450,11 +4447,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:headEnd len="med" type="oval" w="med"/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4475,911 +4472,623 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AMK122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:AO122"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="5" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C87" activeCellId="0" sqref="C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="13" customWidth="1"/>
-    <col min="4" max="7" width="22.7109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="13" customWidth="1"/>
-    <col min="9" max="14" width="22.7109375" style="13" customWidth="1"/>
-    <col min="15" max="15" width="28.42578125" style="13" customWidth="1"/>
-    <col min="16" max="1025" width="22.7109375" style="13" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="22.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="9" style="1" width="22.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="28.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="22.7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="11" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="15"/>
-    </row>
-    <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11" t="s">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11" t="s">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="9" t="s">
+      <c r="S3" s="3"/>
+      <c r="T3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="11" t="s">
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="9" t="s">
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AA3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11" t="s">
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AD3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="11" t="s">
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="15"/>
-    </row>
-    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="11" t="s">
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="15"/>
-    </row>
-    <row r="5" spans="1:41" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="16" t="s">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="14" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="W5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="X5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Y5" s="14" t="s">
+      <c r="Y5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="14" t="s">
+      <c r="Z5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AA5" s="14" t="s">
+      <c r="AA5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AB5" s="14" t="s">
+      <c r="AB5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AC5" s="14" t="s">
+      <c r="AC5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AD5" s="14" t="s">
+      <c r="AD5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="14" t="s">
+      <c r="AE5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AF5" s="14" t="s">
+      <c r="AF5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AG5" s="14" t="s">
+      <c r="AG5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AH5" s="14" t="s">
+      <c r="AH5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AI5" s="14" t="s">
+      <c r="AI5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AJ5" s="14" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AK5" s="14" t="s">
+      <c r="AK5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AL5" s="14" t="s">
+      <c r="AL5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AM5" s="14" t="s">
+      <c r="AM5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AN5" s="14" t="s">
+      <c r="AN5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AO5" s="15"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="AO5" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="H10" s="18" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="H11" s="18" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="H12" s="18" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="H13" s="18" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:41" ht="24" x14ac:dyDescent="0.25">
-      <c r="H16" s="18" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+    <row r="22" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+    <row r="23" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+    <row r="24" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+    <row r="31" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+    <row r="33" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+    <row r="38" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+    <row r="40" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+    <row r="41" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:1" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:1" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+    <row r="46" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:1" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
+    <row r="48" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B50" s="18" t="s">
+    <row r="49" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L50" s="18" t="s">
+      <c r="L50" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="C53" s="18" t="s">
+    <row r="51" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="C54" s="18" t="s">
+    <row r="54" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="C60" s="18" t="s">
+    <row r="55" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:12" s="18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="D62" s="18" t="s">
+    <row r="61" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" s="10" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:12" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="C70" s="18" t="s">
+    <row r="63" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="3:30" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="18" t="s">
+    <row r="71" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" s="10" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C72" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="Y74" s="18" t="s">
+    <row r="73" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y74" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="3:30" s="18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="AD79" s="18" t="s">
+    <row r="75" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" s="10" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD79" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="3:30" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="Y81" s="19" t="s">
+    <row r="80" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y81" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="3:38" s="18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="Y82" s="18" t="s">
+    <row r="82" s="10" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y82" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="3:38" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="Y85" s="18" t="s">
+    <row r="83" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y85" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="C87" s="18" t="s">
+    <row r="86" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="AF88" s="18" t="s">
+    <row r="88" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF88" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="3:38" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="AI90" s="18" t="s">
+    <row r="89" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI90" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="3:38" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="AL93" s="18" t="s">
+    <row r="91" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL93" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="94" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="3:38" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="AL96" s="18" t="s">
+    <row r="94" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL96" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="35:40" s="18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="AL97" s="18" t="s">
+    <row r="97" s="10" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL97" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="35:40" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="AL100" s="18" t="s">
+    <row r="98" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AL100" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="35:40" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="AM102" s="18" t="s">
+    <row r="101" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM102" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="35:40" s="18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="AI108" s="18" t="s">
+    <row r="103" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" s="10" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI108" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="AI109" s="18" t="s">
+    <row r="109" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI109" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="35:40" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="AN111" s="18" t="s">
+    <row r="110" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN111" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="35:40" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="32:34" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="32:34" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="32:34" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="AF115" s="18" t="s">
+    <row r="112" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF115" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="116" spans="32:34" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="AF116" s="18" t="s">
+    <row r="116" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF116" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="117" spans="32:34" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="32:34" s="18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="AF118" s="18" t="s">
+    <row r="117" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" s="10" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF118" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="32:34" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="32:34" s="18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="AG120" s="18" t="s">
+    <row r="119" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" s="10" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG120" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="121" spans="32:34" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="32:34" s="18" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="AH122" s="18" t="s">
+    <row r="121" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH122" s="10" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AJ3"/>
-    <mergeCell ref="AK3:AN4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AJ4"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:AN2"/>
@@ -5396,660 +5105,727 @@
     <mergeCell ref="R3:S4"/>
     <mergeCell ref="T3:V4"/>
     <mergeCell ref="W3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AJ3"/>
+    <mergeCell ref="AK3:AN4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AJ4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" customWidth="1"/>
-    <col min="5" max="5" width="57.7109375" customWidth="1"/>
-    <col min="6" max="1025" width="8.5703125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="55.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="57.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="25" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="32" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="30" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="30" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="30" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="30" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="30" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="35" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="37" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="41" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="30" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="41" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="37" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -6057,33 +5833,53 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/RMSXRouteFillTest/RMSXRouteFillTest_SequenceDiagram.xlsx
+++ b/RMSXRouteFillTest/RMSXRouteFillTest_SequenceDiagram.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SequenceDiagram" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="EMSX Patterns" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="SequenceDiagram" sheetId="1" r:id="rId1"/>
+    <sheet name="EMSX Patterns" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,542 +22,563 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="174">
-  <si>
-    <t xml:space="preserve">RouteFillTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EasyMSX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleMSX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build Rules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProcessNotification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParseRoute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMSXFieldDataPointSource 
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="182">
+  <si>
+    <t>RouteFillTest</t>
+  </si>
+  <si>
+    <t>EasyMSX</t>
+  </si>
+  <si>
+    <t>RuleMSX</t>
+  </si>
+  <si>
+    <t>Build Rules</t>
+  </si>
+  <si>
+    <t>ProcessNotification</t>
+  </si>
+  <si>
+    <t>ParseRoute</t>
+  </si>
+  <si>
+    <t>EMSXFieldDataPointSource 
 (DataPointSource)</t>
   </si>
   <si>
-    <t xml:space="preserve">RouteFillOccurred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShowRouteFill
+    <t>RouteFillOccurred</t>
+  </si>
+  <si>
+    <t>ShowRouteFill
 (ActionExecutor)</t>
   </si>
   <si>
-    <t xml:space="preserve">Route
+    <t>Route
 Notification</t>
   </si>
   <si>
-    <t xml:space="preserve">Field 
+    <t>Field 
 Notification</t>
   </si>
   <si>
-    <t xml:space="preserve">RuleEvaluator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleCondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExecutionAgent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WorkingRule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WorkingSetAgent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constructor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GetValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AssociateWorkingRule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Execute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddHandler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddDependantDataPointName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GetEvaluator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GetExecutor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CreateAction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CreateRuleSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CreateDataSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddRule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddDataPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddDataSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Process WorkingRule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Process Evaluator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IngestDataSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnqueueWorkingRule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dereference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Dependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create RuleCondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(condRouteFillOccurred)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add dependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(RouteStatus)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(RouteFilled)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(RouteLastShares)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done adding dependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done creating RuleCondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(actShowRouteFill)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done creating Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create RuleSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done creating RuleSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(ruleRouteFilled)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done creating Rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assign RuleCondition condRouteFillOccurred  to Rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assign Action actShowRouteFill to Rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received notification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External Event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create DataSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(newDataSet)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create DataPoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Field Notification Handler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done creating DataPoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Execute RuleSet with DataSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On first execute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start the WorkingAgent thread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">or</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On subsequent executes for same RuleSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WorkingAgent started and DataSet submitted to DataSetQueue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Execution started</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If DataSetQueue length &gt; 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For Each Rule in the RuleSet, create a WorkingRule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For each Action, get the Executor and add to WorkingRule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For each RuleCondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Evaluator and add to Working Rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For Each DependentDataPointName in Evaluator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Associate the WorkingRule with the DataPoint in the current DataSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add new WorkingRule to WorkingSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queue the WorkingRule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If WorkingRule not already in the OpenSetQueue, add it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If OpenSetQueue length &gt;0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move OpenSetQueue to OpenSet, reset OpenSetQueue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For Each WorkingRule in OpenSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For Each Evaluator in Working Rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call Evaluate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previous Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meaning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acronym</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMSX_STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New route created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_NEW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working amount set on route (can be ignored)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_SET_WORKING_AMOUNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMSX_WORKING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WORKING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACK received from broker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_NEW_BROKER_ACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARTFILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First fill of multiple fills (&lt; 100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_FILL_FIRST_MULTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;n and &gt;0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle fill of multiple fills (&lt; 100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_FILL_MULTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILLED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final fill of multiple fills (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_FILL_FINAL_MULTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full single fill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_FILL_FIRST_FULL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Historic 100% fill on INIT_PAINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_INIT_PAINT_FILLED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working route on INIT_PAINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_INIT_PAINT_WORKING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part filled route on INIT_PAINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_INIT_PAINT_PARTFILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CXLREQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel requested on route in INIT_PAINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_INIT_PAINT_CANCEL_REQUESTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel route request sent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_CANCEL_REQUESTED_ON_WORKING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker rejected cancel request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_CANCEL_REJECTED_ON_WORKING_FROM_REQUEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CXLPEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker sent ACK for cancel request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_CANCEL_BROKER_ACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_CANCEL_REJECTED_ON_WORKING_FROM_PENDING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANCEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker cancelled route from request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_CANCEL_FROM_REQUESTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker cancelled route from pending status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_CANCEL_FROM_PENDING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel requested on part filled route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_CANCEL_REQUESTED_ON_PARTFILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker rejected cancel request on part filled route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_CANCEL_REJECTED_ON_PARTFILL_FROM_REQUEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_CANCEL_REJECTED_ON_PARTFILL_FROM_PENDING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CXLRPRQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modify (cancel/replace) request sent to broker on working route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_MODIFY_REQUESTED_ON_WORKING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REPPEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker sent ACK for modify request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_MODIFY_BROKER_ACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker rejected modify request on working route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_MODIFY_REJECTED_ON_WORKING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMSX_BROKER_STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CXLRPRJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker accepted and applied the modify request on working route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_MODIFY_APPLIED_ON_WORKING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MODIFIED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modify (cancel/replace) request sent to broker on part filled route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_MODIFY_REQUESTED_ON_PARTFILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker rejected modify request on part filled route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_MODIFY_REJECTED_ON_PARTFILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker accepted and applied the modify request on part filled route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_MODIFY_APPLIED_ON_PARTFILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REJECTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker rejected the order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_REJECTED_BY_BROKER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial paint shows route rejected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_INIT_PAINT_REJECTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial paint shows route cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE_INIT_PAINT_CANCEL</t>
+    <t>RuleEvaluator</t>
+  </si>
+  <si>
+    <t>RuleCondition</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>RuleSet</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>DataSet</t>
+  </si>
+  <si>
+    <t>DataPoint</t>
+  </si>
+  <si>
+    <t>ExecutionAgent</t>
+  </si>
+  <si>
+    <t>WorkingRule</t>
+  </si>
+  <si>
+    <t>WorkingSetAgent</t>
+  </si>
+  <si>
+    <t>Constructor</t>
+  </si>
+  <si>
+    <t>GetValue</t>
+  </si>
+  <si>
+    <t>AssociateWorkingRule</t>
+  </si>
+  <si>
+    <t>Evaluate</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>AddHandler</t>
+  </si>
+  <si>
+    <t>Notify</t>
+  </si>
+  <si>
+    <t>AddDependantDataPointName</t>
+  </si>
+  <si>
+    <t>GetEvaluator</t>
+  </si>
+  <si>
+    <t>GetExecutor</t>
+  </si>
+  <si>
+    <t>CreateAction</t>
+  </si>
+  <si>
+    <t>CreateRuleSet</t>
+  </si>
+  <si>
+    <t>CreateDataSet</t>
+  </si>
+  <si>
+    <t>AddRule</t>
+  </si>
+  <si>
+    <t>AddDataPoint</t>
+  </si>
+  <si>
+    <t>AddDataSet</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Process WorkingRule</t>
+  </si>
+  <si>
+    <t>Process Evaluator</t>
+  </si>
+  <si>
+    <t>IngestDataSet</t>
+  </si>
+  <si>
+    <t>EnqueueWorkingRule</t>
+  </si>
+  <si>
+    <t>Dereference</t>
+  </si>
+  <si>
+    <t>Check Dependencies</t>
+  </si>
+  <si>
+    <t>Create RuleCondition</t>
+  </si>
+  <si>
+    <t>(condRouteFillOccurred)</t>
+  </si>
+  <si>
+    <t>Add dependencies</t>
+  </si>
+  <si>
+    <t>(RouteStatus)</t>
+  </si>
+  <si>
+    <t>(RouteFilled)</t>
+  </si>
+  <si>
+    <t>(RouteLastShares)</t>
+  </si>
+  <si>
+    <t>Done adding dependencies</t>
+  </si>
+  <si>
+    <t>Done creating RuleCondition</t>
+  </si>
+  <si>
+    <t>Create Action</t>
+  </si>
+  <si>
+    <t>(actShowRouteFill)</t>
+  </si>
+  <si>
+    <t>Done creating Action</t>
+  </si>
+  <si>
+    <t>Create RuleSet</t>
+  </si>
+  <si>
+    <t>Done creating RuleSet</t>
+  </si>
+  <si>
+    <t>Create Rule</t>
+  </si>
+  <si>
+    <t>(ruleRouteFilled)</t>
+  </si>
+  <si>
+    <t>Done creating Rule</t>
+  </si>
+  <si>
+    <t>Assign RuleCondition condRouteFillOccurred  to Rule</t>
+  </si>
+  <si>
+    <t>Assign Action actShowRouteFill to Rule</t>
+  </si>
+  <si>
+    <t>Received notification</t>
+  </si>
+  <si>
+    <t>External Event</t>
+  </si>
+  <si>
+    <t>Create DataSet</t>
+  </si>
+  <si>
+    <t>(newDataSet)</t>
+  </si>
+  <si>
+    <t>Create DataPoints</t>
+  </si>
+  <si>
+    <t>Add Field Notification Handler</t>
+  </si>
+  <si>
+    <t>Done creating DataPoints</t>
+  </si>
+  <si>
+    <t>Execute RuleSet with DataSet</t>
+  </si>
+  <si>
+    <t>On first execute</t>
+  </si>
+  <si>
+    <t>Start the WorkingAgent thread</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>On subsequent executes for same RuleSet</t>
+  </si>
+  <si>
+    <t>WorkingAgent started and DataSet submitted to DataSetQueue</t>
+  </si>
+  <si>
+    <t>Execution started</t>
+  </si>
+  <si>
+    <t>If DataSetQueue length &gt; 0</t>
+  </si>
+  <si>
+    <t>For Each Rule in the RuleSet, create a WorkingRule</t>
+  </si>
+  <si>
+    <t>For each Action, get the Executor and add to WorkingRule</t>
+  </si>
+  <si>
+    <t>For each RuleCondition</t>
+  </si>
+  <si>
+    <t>Get Evaluator and add to Working Rule</t>
+  </si>
+  <si>
+    <t>For Each DependentDataPointName in Evaluator</t>
+  </si>
+  <si>
+    <t>Associate the WorkingRule with the DataPoint in the current DataSet</t>
+  </si>
+  <si>
+    <t>Add new WorkingRule to WorkingSet</t>
+  </si>
+  <si>
+    <t>Queue the WorkingRule</t>
+  </si>
+  <si>
+    <t>If WorkingRule not already in the OpenSetQueue, add it</t>
+  </si>
+  <si>
+    <t>If OpenSetQueue length &gt;0</t>
+  </si>
+  <si>
+    <t>Move OpenSetQueue to OpenSet, reset OpenSetQueue</t>
+  </si>
+  <si>
+    <t>For Each WorkingRule in OpenSet</t>
+  </si>
+  <si>
+    <t>For Each Evaluator in Working Rule</t>
+  </si>
+  <si>
+    <t>Call Evaluate</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Previous Value</t>
+  </si>
+  <si>
+    <t>New Value</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Acronym</t>
+  </si>
+  <si>
+    <t>EMSX_STATUS</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>SENT</t>
+  </si>
+  <si>
+    <t>New route created</t>
+  </si>
+  <si>
+    <t>ROUTE_NEW</t>
+  </si>
+  <si>
+    <t>EMSX_WORKING</t>
+  </si>
+  <si>
+    <t>&gt;0</t>
+  </si>
+  <si>
+    <t>WORKING</t>
+  </si>
+  <si>
+    <t>ACK received from broker</t>
+  </si>
+  <si>
+    <t>ROUTE_NEW_BROKER_ACK</t>
+  </si>
+  <si>
+    <t>PARTFILL</t>
+  </si>
+  <si>
+    <t>First fill of multiple fills (&lt; 100%)</t>
+  </si>
+  <si>
+    <t>ROUTE_FILL_FIRST_MULTI</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>&lt;n and &gt;0</t>
+  </si>
+  <si>
+    <t>Middle fill of multiple fills (&lt; 100%)</t>
+  </si>
+  <si>
+    <t>ROUTE_FILL_MULTI</t>
+  </si>
+  <si>
+    <t>FILLED</t>
+  </si>
+  <si>
+    <t>Final fill of multiple fills (100%)</t>
+  </si>
+  <si>
+    <t>ROUTE_FILL_FINAL_MULTI</t>
+  </si>
+  <si>
+    <t>Full single fill</t>
+  </si>
+  <si>
+    <t>ROUTE_FILL_FIRST_FULL</t>
+  </si>
+  <si>
+    <t>Historic 100% fill on INIT_PAINT</t>
+  </si>
+  <si>
+    <t>ROUTE_INIT_PAINT_FILLED</t>
+  </si>
+  <si>
+    <t>Working route on INIT_PAINT</t>
+  </si>
+  <si>
+    <t>ROUTE_INIT_PAINT_WORKING</t>
+  </si>
+  <si>
+    <t>Part filled route on INIT_PAINT</t>
+  </si>
+  <si>
+    <t>ROUTE_INIT_PAINT_PARTFILL</t>
+  </si>
+  <si>
+    <t>CXLREQ</t>
+  </si>
+  <si>
+    <t>Cancel requested on route in INIT_PAINT</t>
+  </si>
+  <si>
+    <t>ROUTE_INIT_PAINT_CANCEL_REQUESTED</t>
+  </si>
+  <si>
+    <t>Cancel route request sent</t>
+  </si>
+  <si>
+    <t>ROUTE_CANCEL_REQUESTED_ON_WORKING</t>
+  </si>
+  <si>
+    <t>Broker rejected cancel request</t>
+  </si>
+  <si>
+    <t>ROUTE_CANCEL_REJECTED_ON_WORKING_FROM_REQUEST</t>
+  </si>
+  <si>
+    <t>CXLPEN</t>
+  </si>
+  <si>
+    <t>Broker sent ACK for cancel request</t>
+  </si>
+  <si>
+    <t>ROUTE_CANCEL_BROKER_ACK</t>
+  </si>
+  <si>
+    <t>ROUTE_CANCEL_REJECTED_ON_WORKING_FROM_PENDING</t>
+  </si>
+  <si>
+    <t>CANCEL</t>
+  </si>
+  <si>
+    <t>Broker cancelled route from request</t>
+  </si>
+  <si>
+    <t>ROUTE_CANCEL_FROM_REQUESTED</t>
+  </si>
+  <si>
+    <t>Broker cancelled route from pending status</t>
+  </si>
+  <si>
+    <t>ROUTE_CANCEL_FROM_PENDING</t>
+  </si>
+  <si>
+    <t>Cancel requested on part filled route</t>
+  </si>
+  <si>
+    <t>ROUTE_CANCEL_REQUESTED_ON_PARTFILL</t>
+  </si>
+  <si>
+    <t>Broker rejected cancel request on part filled route</t>
+  </si>
+  <si>
+    <t>ROUTE_CANCEL_REJECTED_ON_PARTFILL_FROM_REQUEST</t>
+  </si>
+  <si>
+    <t>ROUTE_CANCEL_REJECTED_ON_PARTFILL_FROM_PENDING</t>
+  </si>
+  <si>
+    <t>CXLRPRQ</t>
+  </si>
+  <si>
+    <t>Modify (cancel/replace) request sent to broker on working route</t>
+  </si>
+  <si>
+    <t>ROUTE_MODIFY_REQUESTED_ON_WORKING</t>
+  </si>
+  <si>
+    <t>REPPEN</t>
+  </si>
+  <si>
+    <t>Broker sent ACK for modify request</t>
+  </si>
+  <si>
+    <t>ROUTE_MODIFY_BROKER_ACK</t>
+  </si>
+  <si>
+    <t>Broker rejected modify request on working route</t>
+  </si>
+  <si>
+    <t>ROUTE_MODIFY_REJECTED_ON_WORKING</t>
+  </si>
+  <si>
+    <t>EMSX_BROKER_STATUS</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CXLRPRJ</t>
+  </si>
+  <si>
+    <t>Broker accepted and applied the modify request on working route</t>
+  </si>
+  <si>
+    <t>ROUTE_MODIFY_APPLIED_ON_WORKING</t>
+  </si>
+  <si>
+    <t>MODIFIED</t>
+  </si>
+  <si>
+    <t>Modify (cancel/replace) request sent to broker on part filled route</t>
+  </si>
+  <si>
+    <t>ROUTE_MODIFY_REQUESTED_ON_PARTFILL</t>
+  </si>
+  <si>
+    <t>Broker rejected modify request on part filled route</t>
+  </si>
+  <si>
+    <t>ROUTE_MODIFY_REJECTED_ON_PARTFILL</t>
+  </si>
+  <si>
+    <t>Broker accepted and applied the modify request on part filled route</t>
+  </si>
+  <si>
+    <t>ROUTE_MODIFY_APPLIED_ON_PARTFILL</t>
+  </si>
+  <si>
+    <t>REJECTED</t>
+  </si>
+  <si>
+    <t>Initial paint shows route rejected</t>
+  </si>
+  <si>
+    <t>ROUTE_INIT_PAINT_REJECTED</t>
+  </si>
+  <si>
+    <t>Initial paint shows route cancelled</t>
+  </si>
+  <si>
+    <t>ROUTE_INIT_PAINT_CANCEL</t>
+  </si>
+  <si>
+    <t>Modify rejected from request</t>
+  </si>
+  <si>
+    <t>ROUTE_MODIFY_REJECTED_FROM_REQUEST</t>
+  </si>
+  <si>
+    <t>Part filled route cancelled by broker</t>
+  </si>
+  <si>
+    <t>ROUTE_CANCEL_BY_BROKER_ON_PARTFILL</t>
+  </si>
+  <si>
+    <t>Workling route cancelled by broker</t>
+  </si>
+  <si>
+    <t>ROUTE_CANCEL_BY_BROKER_ON_WORKING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Route rejected from working </t>
+  </si>
+  <si>
+    <t>ROUTE_REJECTED_BY_BROKER_FROM_WORKING</t>
+  </si>
+  <si>
+    <t>ROUTE_FIELD_UPDATE_ON_SENT</t>
+  </si>
+  <si>
+    <t>Field update on sent</t>
+  </si>
+  <si>
+    <t>ROUTE_REJECTED_BY_BROKER_FROM_SENT</t>
+  </si>
+  <si>
+    <t>Broker rejected the order from sent status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -567,32 +587,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF558ED5"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -634,317 +633,315 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="15">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="50">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="44">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1003,13 +1000,26 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1023,9 +1033,9 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1037,6 +1047,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1052,11 +1063,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1087,9 +1098,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1101,6 +1112,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1116,11 +1128,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1151,9 +1163,9 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1165,6 +1177,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1180,11 +1193,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1215,9 +1228,9 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>97920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1229,6 +1242,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1244,11 +1258,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1279,9 +1293,9 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1293,6 +1307,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1308,11 +1323,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1343,9 +1358,9 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1357,6 +1372,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1372,11 +1388,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1407,9 +1423,9 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1421,6 +1437,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1436,11 +1453,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1471,9 +1488,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvPr id="9" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1485,6 +1502,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1500,11 +1518,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1535,9 +1553,9 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1"/>
+        <xdr:cNvPr id="10" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1549,6 +1567,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1564,11 +1583,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1599,9 +1618,9 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1"/>
+        <xdr:cNvPr id="11" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1613,6 +1632,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1628,11 +1648,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1663,9 +1683,9 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1"/>
+        <xdr:cNvPr id="12" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1677,6 +1697,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1692,11 +1713,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1727,9 +1748,9 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1"/>
+        <xdr:cNvPr id="13" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1741,6 +1762,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1756,11 +1778,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1791,9 +1813,9 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1"/>
+        <xdr:cNvPr id="14" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1805,6 +1827,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1820,11 +1843,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1855,9 +1878,9 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvPr id="15" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1869,6 +1892,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1884,11 +1908,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1919,9 +1943,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvPr id="16" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1933,6 +1957,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -1948,11 +1973,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1983,9 +2008,9 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1997,6 +2022,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2012,11 +2038,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="ffffff"/>
+            <a:srgbClr val="FFFFFF"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2047,9 +2073,9 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1"/>
+        <xdr:cNvPr id="18" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2061,6 +2087,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2076,11 +2103,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2111,9 +2138,9 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>68400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
+        <xdr:cNvPr id="19" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2125,6 +2152,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2140,11 +2168,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2175,9 +2203,9 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CustomShape 1"/>
+        <xdr:cNvPr id="20" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2189,6 +2217,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2204,11 +2233,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2239,9 +2268,9 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1"/>
+        <xdr:cNvPr id="21" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2253,6 +2282,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2268,11 +2298,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2303,9 +2333,9 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CustomShape 1"/>
+        <xdr:cNvPr id="22" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2317,6 +2347,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2332,11 +2363,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2367,9 +2398,9 @@
       <xdr:row>63</xdr:row>
       <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="CustomShape 1"/>
+        <xdr:cNvPr id="23" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2381,6 +2412,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2396,11 +2428,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2431,9 +2463,9 @@
       <xdr:row>64</xdr:row>
       <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="CustomShape 1"/>
+        <xdr:cNvPr id="24" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2445,6 +2477,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2460,11 +2493,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2495,9 +2528,9 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="CustomShape 1"/>
+        <xdr:cNvPr id="25" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2509,6 +2542,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2524,11 +2558,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2559,9 +2593,9 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="CustomShape 1"/>
+        <xdr:cNvPr id="26" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2573,6 +2607,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2588,11 +2623,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2623,9 +2658,9 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="CustomShape 1"/>
+        <xdr:cNvPr id="27" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2637,6 +2672,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2652,11 +2688,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2687,9 +2723,9 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="CustomShape 1"/>
+        <xdr:cNvPr id="28" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2701,23 +2737,30 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:srgbClr val="ffffff"/>
+            <a:srgbClr val="FFFFFF"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr" vert="vert270" rot="16200000"/>
+        <a:bodyPr rot="16200000" vert="vert270" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr">
             <a:lnSpc>
@@ -2725,15 +2768,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-GB" sz="900" spc="-1" strike="noStrike">
+            <a:rPr lang="en-GB" sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="558ed5"/>
+                <a:srgbClr val="558ED5"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Repeat for each DataPoint</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-GB" sz="900" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-GB" sz="900" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2754,9 +2797,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="CustomShape 1"/>
+        <xdr:cNvPr id="29" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2768,6 +2811,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2783,11 +2827,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2818,9 +2862,9 @@
       <xdr:row>79</xdr:row>
       <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="CustomShape 1"/>
+        <xdr:cNvPr id="30" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2832,6 +2876,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2847,11 +2892,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="ffffff"/>
+            <a:srgbClr val="FFFFFF"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2882,9 +2927,9 @@
       <xdr:row>82</xdr:row>
       <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="CustomShape 1"/>
+        <xdr:cNvPr id="31" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2896,6 +2941,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2911,11 +2957,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2946,9 +2992,9 @@
       <xdr:row>76</xdr:row>
       <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="CustomShape 1"/>
+        <xdr:cNvPr id="32" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2960,6 +3006,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -2975,11 +3022,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3010,9 +3057,9 @@
       <xdr:row>83</xdr:row>
       <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="CustomShape 1"/>
+        <xdr:cNvPr id="33" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3024,6 +3071,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3039,11 +3087,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3074,9 +3122,9 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="CustomShape 1"/>
+        <xdr:cNvPr id="34" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3088,6 +3136,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3103,11 +3152,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3138,9 +3187,9 @@
       <xdr:row>85</xdr:row>
       <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="CustomShape 1"/>
+        <xdr:cNvPr id="35" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3152,6 +3201,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3167,11 +3217,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3202,9 +3252,9 @@
       <xdr:row>88</xdr:row>
       <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="CustomShape 1"/>
+        <xdr:cNvPr id="36" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3216,6 +3266,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3231,11 +3282,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3266,9 +3317,9 @@
       <xdr:row>90</xdr:row>
       <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="CustomShape 1"/>
+        <xdr:cNvPr id="37" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3280,6 +3331,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3295,11 +3347,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3330,9 +3382,9 @@
       <xdr:row>91</xdr:row>
       <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="CustomShape 1"/>
+        <xdr:cNvPr id="38" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3344,6 +3396,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3359,11 +3412,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3394,9 +3447,9 @@
       <xdr:row>93</xdr:row>
       <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="CustomShape 1"/>
+        <xdr:cNvPr id="39" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3408,6 +3461,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3423,11 +3477,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3458,9 +3512,9 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="CustomShape 1"/>
+        <xdr:cNvPr id="40" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3472,6 +3526,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3487,11 +3542,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3522,9 +3577,9 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="CustomShape 1"/>
+        <xdr:cNvPr id="41" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3536,6 +3591,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3551,11 +3607,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3586,9 +3642,9 @@
       <xdr:row>94</xdr:row>
       <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="CustomShape 1"/>
+        <xdr:cNvPr id="42" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3600,6 +3656,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3615,11 +3672,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3650,9 +3707,9 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="CustomShape 1"/>
+        <xdr:cNvPr id="43" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3664,6 +3721,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3679,11 +3737,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3714,9 +3772,9 @@
       <xdr:row>98</xdr:row>
       <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="CustomShape 1"/>
+        <xdr:cNvPr id="44" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3728,6 +3786,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3743,11 +3802,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3778,9 +3837,9 @@
       <xdr:row>100</xdr:row>
       <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CustomShape 1"/>
+        <xdr:cNvPr id="45" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3792,6 +3851,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3807,11 +3867,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3842,9 +3902,9 @@
       <xdr:row>102</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="CustomShape 1"/>
+        <xdr:cNvPr id="46" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3856,6 +3916,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3871,11 +3932,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3906,9 +3967,9 @@
       <xdr:row>104</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="CustomShape 1"/>
+        <xdr:cNvPr id="47" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3920,6 +3981,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3935,11 +3997,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3970,9 +4032,9 @@
       <xdr:row>105</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="CustomShape 1"/>
+        <xdr:cNvPr id="48" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3984,6 +4046,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -3999,11 +4062,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4034,9 +4097,9 @@
       <xdr:row>106</xdr:row>
       <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="CustomShape 1"/>
+        <xdr:cNvPr id="49" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4048,6 +4111,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -4063,11 +4127,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4098,9 +4162,9 @@
       <xdr:row>109</xdr:row>
       <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="CustomShape 1"/>
+        <xdr:cNvPr id="50" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4112,6 +4176,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -4127,11 +4192,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4162,9 +4227,9 @@
       <xdr:row>111</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="CustomShape 1"/>
+        <xdr:cNvPr id="51" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4176,6 +4241,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -4191,11 +4257,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4226,9 +4292,9 @@
       <xdr:row>112</xdr:row>
       <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CustomShape 1"/>
+        <xdr:cNvPr id="52" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4240,6 +4306,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -4255,11 +4322,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4290,9 +4357,9 @@
       <xdr:row>118</xdr:row>
       <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="CustomShape 1"/>
+        <xdr:cNvPr id="53" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4304,6 +4371,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -4319,11 +4387,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4354,9 +4422,9 @@
       <xdr:row>120</xdr:row>
       <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="CustomShape 1"/>
+        <xdr:cNvPr id="54" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4368,6 +4436,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -4383,11 +4452,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4418,9 +4487,9 @@
       <xdr:row>122</xdr:row>
       <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="CustomShape 1"/>
+        <xdr:cNvPr id="55" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4432,6 +4501,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="21600" h="21600">
@@ -4447,11 +4517,11 @@
         <a:noFill/>
         <a:ln w="34920">
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd len="med" type="oval" w="med"/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4472,623 +4542,911 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:AO122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AMK122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C87" activeCellId="0" sqref="C87"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="9" style="1" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="28.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="22.7"/>
+    <col min="1" max="1" width="20.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="12" customWidth="1"/>
+    <col min="4" max="7" width="22.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="12" customWidth="1"/>
+    <col min="9" max="14" width="22.7109375" style="12" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" style="12" customWidth="1"/>
+    <col min="16" max="1025" width="22.7109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="14"/>
+    </row>
+    <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3" t="s">
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="6" t="s">
+      <c r="S3" s="10"/>
+      <c r="T3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="3" t="s">
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="6" t="s">
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3" t="s">
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AD3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="3" t="s">
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="14"/>
+    </row>
+    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8" t="s">
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="14"/>
+    </row>
+    <row r="5" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
+      <c r="L5" s="10"/>
+      <c r="M5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="V5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AB5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AC5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AD5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AE5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AF5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AG5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AH5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AI5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AJ5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AK5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AL5" s="3" t="s">
+      <c r="AL5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AM5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AN5" s="3" t="s">
+      <c r="AN5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AO5" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="AO5" s="14"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H10" s="10" t="s">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="H10" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H11" s="10" t="s">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="H11" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="10" t="s">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="H12" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="10" t="s">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="H13" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="10" t="s">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:41" ht="24" x14ac:dyDescent="0.25">
+      <c r="H16" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+    <row r="24" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+    <row r="31" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
+    <row r="33" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
+    <row r="38" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
+    <row r="41" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
+    <row r="46" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:1" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
+    <row r="48" spans="1:1" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="10" t="s">
+    <row r="49" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B50" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="L50" s="10" t="s">
+      <c r="L50" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="10" t="s">
+    <row r="51" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="C53" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="10" t="s">
+    <row r="54" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="C54" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="10" t="s">
+    <row r="55" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="C60" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="61" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" s="10" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="10" t="s">
+    <row r="61" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:12" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="D62" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="10" t="s">
+    <row r="63" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="C70" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" s="10" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C72" s="10" t="s">
+    <row r="71" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="3:30" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y74" s="10" t="s">
+    <row r="73" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="Y74" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" s="10" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD79" s="10" t="s">
+    <row r="75" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="3:30" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AD79" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="80" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y81" s="11" t="s">
+    <row r="80" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="Y81" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" s="10" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y82" s="10" t="s">
+    <row r="82" spans="3:38" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="Y82" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="83" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y85" s="10" t="s">
+    <row r="83" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="3:38" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="Y85" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="86" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="10" t="s">
+    <row r="86" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="C87" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="88" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AF88" s="10" t="s">
+    <row r="88" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AF88" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AI90" s="10" t="s">
+    <row r="89" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="3:38" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AI90" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="91" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL93" s="10" t="s">
+    <row r="91" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="3:38" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AL93" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="94" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL96" s="10" t="s">
+    <row r="94" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AL96" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="97" s="10" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL97" s="10" t="s">
+    <row r="97" spans="35:40" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AL97" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="98" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL100" s="10" t="s">
+    <row r="98" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="35:40" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AL100" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="101" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AM102" s="10" t="s">
+    <row r="101" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="35:40" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AM102" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="103" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" s="10" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AI108" s="10" t="s">
+    <row r="103" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="35:40" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AI108" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="109" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AI109" s="10" t="s">
+    <row r="109" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AI109" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="110" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AN111" s="10" t="s">
+    <row r="110" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="35:40" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AN111" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="112" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AF115" s="10" t="s">
+    <row r="112" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="32:34" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="32:34" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="32:34" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AF115" s="17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="116" s="10" customFormat="true" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AF116" s="10" t="s">
+    <row r="116" spans="32:34" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AF116" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="117" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" s="10" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AF118" s="10" t="s">
+    <row r="117" spans="32:34" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="32:34" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AF118" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="119" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" s="10" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AG120" s="10" t="s">
+    <row r="119" spans="32:34" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="32:34" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AG120" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="121" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" s="10" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH122" s="10" t="s">
+    <row r="121" spans="32:34" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="32:34" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AH122" s="17" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AJ3"/>
+    <mergeCell ref="AK3:AN4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AJ4"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:AN2"/>
@@ -5105,727 +5463,764 @@
     <mergeCell ref="R3:S4"/>
     <mergeCell ref="T3:V4"/>
     <mergeCell ref="W3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AJ3"/>
-    <mergeCell ref="AK3:AN4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AJ4"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="55.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="57.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.57"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" customWidth="1"/>
+    <col min="5" max="5" width="57.7109375" customWidth="1"/>
+    <col min="6" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="21" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="B7" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
+      <c r="C11" s="27">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="22" t="n">
+      <c r="C12" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="31">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B14" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="C38" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="C42" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="s">
+      <c r="B43" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
+      <c r="C43" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26" t="s">
+      <c r="B44" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="37" t="s">
+      <c r="C44" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="E37" s="37" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>173</v>
+      <c r="D44" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="48" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="21">
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5833,53 +6228,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/RMSXRouteFillTest/RMSXRouteFillTest_SequenceDiagram.xlsx
+++ b/RMSXRouteFillTest/RMSXRouteFillTest_SequenceDiagram.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="183">
   <si>
     <t>RouteFillTest</t>
   </si>
@@ -572,13 +572,16 @@
   </si>
   <si>
     <t>Broker rejected the order from sent status</t>
+  </si>
+  <si>
+    <t>Route State Transitions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -605,6 +608,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -817,41 +827,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -936,6 +913,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4838,615 +4849,608 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="12" customWidth="1"/>
-    <col min="4" max="7" width="22.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="12" customWidth="1"/>
-    <col min="9" max="14" width="22.7109375" style="12" customWidth="1"/>
-    <col min="15" max="15" width="28.42578125" style="12" customWidth="1"/>
-    <col min="16" max="1025" width="22.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="22.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="1" customWidth="1"/>
+    <col min="9" max="14" width="22.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" style="1" customWidth="1"/>
+    <col min="16" max="1025" width="22.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="10" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10" t="s">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="14"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="3"/>
     </row>
     <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="40"/>
+      <c r="J3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10" t="s">
+      <c r="K3" s="40"/>
+      <c r="L3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10" t="s">
+      <c r="N3" s="40"/>
+      <c r="O3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10" t="s">
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="8" t="s">
+      <c r="S3" s="40"/>
+      <c r="T3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="10" t="s">
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="8" t="s">
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AA3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10" t="s">
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AD3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="10" t="s">
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="14"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="3"/>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="10" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="14"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="3"/>
     </row>
     <row r="5" spans="1:41" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="15" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="13" t="s">
+      <c r="L5" s="40"/>
+      <c r="M5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="V5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="W5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="X5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Y5" s="13" t="s">
+      <c r="Y5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="13" t="s">
+      <c r="Z5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AA5" s="13" t="s">
+      <c r="AA5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AB5" s="13" t="s">
+      <c r="AB5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AC5" s="13" t="s">
+      <c r="AC5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AD5" s="13" t="s">
+      <c r="AD5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="13" t="s">
+      <c r="AE5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF5" s="13" t="s">
+      <c r="AF5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AG5" s="13" t="s">
+      <c r="AG5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AH5" s="13" t="s">
+      <c r="AH5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI5" s="13" t="s">
+      <c r="AI5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AJ5" s="13" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AK5" s="13" t="s">
+      <c r="AK5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AL5" s="13" t="s">
+      <c r="AL5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AM5" s="13" t="s">
+      <c r="AM5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AN5" s="13" t="s">
+      <c r="AN5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AO5" s="14"/>
+      <c r="AO5" s="3"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="H14" s="17"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="H15" s="17"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:41" ht="24" x14ac:dyDescent="0.25">
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+    <row r="24" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+    <row r="31" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+    <row r="33" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+    <row r="38" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+    <row r="40" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+    <row r="41" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:1" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:1" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+    <row r="46" spans="1:1" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:1" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:1" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+    <row r="48" spans="1:1" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B50" s="17" t="s">
+    <row r="49" spans="2:12" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:12" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="L50" s="17" t="s">
+      <c r="L50" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="C53" s="17" t="s">
+    <row r="51" spans="2:12" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:12" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="2:12" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="C53" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="C54" s="17" t="s">
+    <row r="54" spans="2:12" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="C54" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="C60" s="17" t="s">
+    <row r="55" spans="2:12" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:12" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:12" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:12" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:12" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:12" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="C60" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:12" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="D62" s="17" t="s">
+    <row r="61" spans="2:12" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:12" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="D62" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="C70" s="17" t="s">
+    <row r="63" spans="2:12" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:12" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="3:30" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="3:30" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="3:30" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="3:30" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="3:30" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="3:30" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="C70" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="3:30" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="17" t="s">
+    <row r="71" spans="3:30" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="3:30" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="Y74" s="17" t="s">
+    <row r="73" spans="3:30" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="3:30" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="Y74" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="3:30" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="AD79" s="17" t="s">
+    <row r="75" spans="3:30" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="3:30" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="3:30" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="3:30" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="3:30" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AD79" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="3:30" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="Y81" s="18" t="s">
+    <row r="80" spans="3:30" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="3:38" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="Y81" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="3:38" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="Y82" s="17" t="s">
+    <row r="82" spans="3:38" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="Y82" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="3:38" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="Y85" s="17" t="s">
+    <row r="83" spans="3:38" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="3:38" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="3:38" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="Y85" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="C87" s="17" t="s">
+    <row r="86" spans="3:38" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="3:38" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="C87" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="AF88" s="17" t="s">
+    <row r="88" spans="3:38" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AF88" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="3:38" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="AI90" s="17" t="s">
+    <row r="89" spans="3:38" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="3:38" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AI90" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="3:38" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="AL93" s="17" t="s">
+    <row r="91" spans="3:38" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="3:38" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="3:38" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AL93" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="94" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="3:38" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="AL96" s="17" t="s">
+    <row r="94" spans="3:38" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="3:38" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="3:38" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AL96" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="35:40" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="AL97" s="17" t="s">
+    <row r="97" spans="35:40" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AL97" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="35:40" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="AL100" s="17" t="s">
+    <row r="98" spans="35:40" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="35:40" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="35:40" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AL100" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="35:40" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="AM102" s="17" t="s">
+    <row r="101" spans="35:40" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="35:40" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AM102" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="35:40" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="AI108" s="17" t="s">
+    <row r="103" spans="35:40" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="35:40" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="35:40" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="35:40" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="35:40" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="35:40" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AI108" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="AI109" s="17" t="s">
+    <row r="109" spans="35:40" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AI109" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="35:40" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="AN111" s="17" t="s">
+    <row r="110" spans="35:40" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="35:40" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AN111" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="35:40" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="32:34" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="32:34" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="32:34" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="AF115" s="17" t="s">
+    <row r="112" spans="35:40" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="32:34" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="32:34" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="32:34" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AF115" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="116" spans="32:34" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="AF116" s="17" t="s">
+    <row r="116" spans="32:34" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AF116" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="117" spans="32:34" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="32:34" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="AF118" s="17" t="s">
+    <row r="117" spans="32:34" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="32:34" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AF118" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="32:34" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="32:34" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="AG120" s="17" t="s">
+    <row r="119" spans="32:34" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="32:34" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AG120" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="121" spans="32:34" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="32:34" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="AH122" s="17" t="s">
+    <row r="121" spans="32:34" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="32:34" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AH122" s="6" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AJ3"/>
-    <mergeCell ref="AK3:AN4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AJ4"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:AN2"/>
@@ -5463,6 +5467,13 @@
     <mergeCell ref="R3:S4"/>
     <mergeCell ref="T3:V4"/>
     <mergeCell ref="W3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AJ3"/>
+    <mergeCell ref="AK3:AN4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AJ4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5472,11 +5483,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5488,738 +5497,743 @@
     <col min="6" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B3" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C3" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D3" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E3" s="49" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D5" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E5" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B6" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C6" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D6" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E6" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B7" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C7" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D7" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E7" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B8" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C8" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D8" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E8" s="46" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B9" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C9" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B10" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C10" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D10" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E10" s="47" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B11" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C11" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B12" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C12" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D12" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E12" s="46" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B13" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C13" s="16">
         <v>0</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B14" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C14" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D14" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E14" s="47" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="31">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B16" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C16" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D17" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E17" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B18" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C18" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D18" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E18" s="23" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C19" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D19" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E19" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C20" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D20" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E20" s="23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B21" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C21" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D21" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E21" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B22" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C22" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D22" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E22" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B23" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C23" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D23" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E23" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B24" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C24" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D24" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E24" s="23" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B25" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C25" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D25" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E25" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B26" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C26" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D26" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E26" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B27" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C27" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D27" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E27" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B28" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C28" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D28" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E28" s="23" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B29" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C29" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D29" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E29" s="10" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B32" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C32" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B33" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C33" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D33" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E33" s="44" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B34" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C34" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B35" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C35" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D35" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E35" s="23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B36" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C36" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D36" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E36" s="44" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B37" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C37" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B38" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C38" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D38" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E38" s="45" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B39" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C39" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B40" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C40" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D40" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E40" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B41" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C41" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D41" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E41" s="23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B42" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C42" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D42" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E42" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="47" t="s">
+      <c r="B43" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C43" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D43" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E43" s="23" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B44" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C44" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>172</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E44" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="46" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B45" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C45" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="D45" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="E43" s="46" t="s">
+      <c r="E45" s="35" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B46" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C46" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D46" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="E44" s="48" t="s">
+      <c r="E46" s="37" t="s">
         <v>177</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
